--- a/lib/machines/templates/machines.xlsx
+++ b/lib/machines/templates/machines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="300">
   <si>
     <t xml:space="preserve">ES-DOC CMIP6 Institute Machines</t>
   </si>
@@ -136,6 +136,9 @@
     <t xml:space="preserve">NOTE 2: String must correspond to the name of another documented machine, i.e. a machine detailed in another tab. If the machine is not a partition, leave this field empty.</t>
   </si>
   <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
     <t xml:space="preserve">General properties</t>
   </si>
   <si>
@@ -763,6 +766,9 @@
     <t xml:space="preserve">HadGEM3-GC31-HH</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.8.2.2</t>
   </si>
   <si>
@@ -773,6 +779,9 @@
   </si>
   <si>
     <t xml:space="preserve">HadGEM3-GC31-LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.2.4</t>
@@ -1670,7 +1679,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1786,8 +1795,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F428" activeCellId="0" sqref="F428"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E398" activeCellId="0" sqref="E398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2163,7 +2172,9 @@
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="19"/>
@@ -2204,7 +2215,7 @@
         <v>1.2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -2225,7 +2236,7 @@
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="24"/>
@@ -2264,10 +2275,10 @@
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -2290,7 +2301,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="19"/>
@@ -2330,7 +2341,7 @@
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27"/>
       <c r="B26" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
@@ -2351,7 +2362,7 @@
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="33"/>
       <c r="B27" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -2390,10 +2401,10 @@
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -2416,7 +2427,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="19"/>
@@ -2437,7 +2448,7 @@
     <row r="31" customFormat="false" ht="148.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="19"/>
       <c r="B31" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -2476,10 +2487,10 @@
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -2502,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="19"/>
@@ -2542,7 +2553,7 @@
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="36"/>
       <c r="B36" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="19"/>
@@ -2563,7 +2574,7 @@
     <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19"/>
       <c r="B37" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -2602,10 +2613,10 @@
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -2628,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="19"/>
@@ -2668,7 +2679,7 @@
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="36"/>
       <c r="B42" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="19"/>
@@ -2688,10 +2699,10 @@
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -2730,10 +2741,10 @@
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -2772,10 +2783,10 @@
     </row>
     <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -2798,7 +2809,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="19"/>
@@ -2819,7 +2830,7 @@
     <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="19"/>
       <c r="B49" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -2861,7 +2872,7 @@
         <v>1.3</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -2882,7 +2893,7 @@
     <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19"/>
       <c r="B52" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="24"/>
@@ -2921,10 +2932,10 @@
     </row>
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -2947,7 +2958,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="19"/>
@@ -2987,7 +2998,7 @@
     <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="27"/>
       <c r="B57" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
@@ -3008,7 +3019,7 @@
     <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19"/>
       <c r="B58" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -3047,10 +3058,10 @@
     </row>
     <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -3073,7 +3084,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="19"/>
@@ -3094,7 +3105,7 @@
     <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19"/>
       <c r="B62" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -3136,7 +3147,7 @@
         <v>1.4</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -3157,7 +3168,7 @@
     <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="24"/>
@@ -3197,7 +3208,7 @@
     <row r="67" customFormat="false" ht="65.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19"/>
       <c r="B67" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
@@ -3236,10 +3247,10 @@
     </row>
     <row r="69" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
@@ -3260,7 +3271,7 @@
     <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="31"/>
       <c r="B70" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="19"/>
@@ -3299,7 +3310,7 @@
     </row>
     <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>16</v>
@@ -3325,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" s="28"/>
       <c r="D73" s="19"/>
@@ -3383,10 +3394,10 @@
     </row>
     <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -3409,7 +3420,7 @@
         <v>17</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="19"/>
@@ -3429,10 +3440,10 @@
     </row>
     <row r="78" customFormat="false" ht="221.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
@@ -3471,10 +3482,10 @@
     </row>
     <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -3497,7 +3508,7 @@
         <v>17</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="28"/>
       <c r="D81" s="19"/>
@@ -3537,7 +3548,7 @@
     <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="27"/>
       <c r="B83" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
@@ -3558,7 +3569,7 @@
     <row r="84" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19"/>
       <c r="B84" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
@@ -3597,10 +3608,10 @@
     </row>
     <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -3623,7 +3634,7 @@
         <v>17</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" s="28"/>
       <c r="D87" s="19"/>
@@ -3644,7 +3655,7 @@
     <row r="88" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19"/>
       <c r="B88" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
@@ -3683,10 +3694,10 @@
     </row>
     <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -3706,10 +3717,10 @@
     </row>
     <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="C91" s="28"/>
       <c r="D91" s="19"/>
@@ -3769,10 +3780,10 @@
     </row>
     <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -3792,10 +3803,10 @@
     </row>
     <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="C95" s="28"/>
       <c r="D95" s="19"/>
@@ -3855,10 +3866,10 @@
     </row>
     <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -3878,10 +3889,10 @@
     </row>
     <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C99" s="28"/>
       <c r="D99" s="19"/>
@@ -3941,10 +3952,10 @@
     </row>
     <row r="102" customFormat="false" ht="45.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -3965,7 +3976,7 @@
     <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="44"/>
       <c r="B103" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C103" s="46"/>
       <c r="D103" s="47"/>
@@ -4005,7 +4016,7 @@
     <row r="105" customFormat="false" ht="58.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="47"/>
       <c r="B105" s="48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C105" s="48"/>
       <c r="D105" s="48"/>
@@ -4025,10 +4036,10 @@
     </row>
     <row r="106" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
@@ -4048,7 +4059,7 @@
     </row>
     <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>16</v>
@@ -4074,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C108" s="46"/>
       <c r="D108" s="47"/>
@@ -4095,7 +4106,7 @@
     <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="47"/>
       <c r="B109" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
@@ -4134,10 +4145,10 @@
     </row>
     <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -4157,10 +4168,10 @@
     </row>
     <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="47"/>
@@ -4180,7 +4191,7 @@
     </row>
     <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B113" s="34" t="n">
         <v>19013</v>
@@ -4222,10 +4233,10 @@
     </row>
     <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
@@ -4248,7 +4259,7 @@
         <v>17</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="47"/>
@@ -4288,7 +4299,7 @@
     <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="51"/>
       <c r="B118" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="46"/>
@@ -4309,7 +4320,7 @@
     <row r="119" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="51"/>
       <c r="B119" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
@@ -4348,10 +4359,10 @@
     </row>
     <row r="121" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B121" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C121" s="50"/>
       <c r="D121" s="50"/>
@@ -4371,7 +4382,7 @@
     </row>
     <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>16</v>
@@ -4397,7 +4408,7 @@
         <v>17</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="47"/>
@@ -4455,10 +4466,10 @@
     </row>
     <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
@@ -4478,10 +4489,10 @@
     </row>
     <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" s="46"/>
       <c r="D127" s="47"/>
@@ -4501,7 +4512,7 @@
     </row>
     <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -4541,10 +4552,10 @@
     </row>
     <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
@@ -4567,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="47"/>
@@ -4607,7 +4618,7 @@
     <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="51"/>
       <c r="B133" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="47"/>
@@ -4665,10 +4676,10 @@
     </row>
     <row r="136" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
@@ -4688,7 +4699,7 @@
     </row>
     <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B137" s="26" t="s">
         <v>16</v>
@@ -4714,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="47"/>
@@ -4772,10 +4783,10 @@
     </row>
     <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
@@ -4795,10 +4806,10 @@
     </row>
     <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C142" s="46"/>
       <c r="D142" s="47"/>
@@ -4818,7 +4829,7 @@
     </row>
     <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -4858,10 +4869,10 @@
     </row>
     <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -4884,7 +4895,7 @@
         <v>17</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C146" s="46"/>
       <c r="D146" s="47"/>
@@ -4924,7 +4935,7 @@
     <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="51"/>
       <c r="B148" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C148" s="46"/>
       <c r="D148" s="47"/>
@@ -5001,10 +5012,10 @@
     </row>
     <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
@@ -5024,10 +5035,10 @@
     </row>
     <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C153" s="28"/>
       <c r="D153" s="19"/>
@@ -5048,7 +5059,7 @@
     <row r="154" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="19"/>
       <c r="B154" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
@@ -5087,10 +5098,10 @@
     </row>
     <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
@@ -5113,7 +5124,7 @@
         <v>17</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C157" s="28"/>
       <c r="D157" s="19"/>
@@ -5134,7 +5145,7 @@
     <row r="158" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="19"/>
       <c r="B158" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
@@ -5173,10 +5184,10 @@
     </row>
     <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -5199,7 +5210,7 @@
         <v>17</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="19"/>
@@ -5220,7 +5231,7 @@
     <row r="162" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="19"/>
       <c r="B162" s="54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C162" s="54"/>
       <c r="D162" s="54"/>
@@ -5259,10 +5270,10 @@
     </row>
     <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -5282,10 +5293,10 @@
     </row>
     <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C165" s="28"/>
       <c r="D165" s="19"/>
@@ -5345,10 +5356,10 @@
     </row>
     <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
@@ -5368,10 +5379,10 @@
     </row>
     <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C169" s="28"/>
       <c r="D169" s="19"/>
@@ -5431,10 +5442,10 @@
     </row>
     <row r="172" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B172" s="41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C172" s="41"/>
       <c r="D172" s="41"/>
@@ -5455,7 +5466,7 @@
     <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="31"/>
       <c r="B173" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C173" s="28"/>
       <c r="D173" s="19"/>
@@ -5494,7 +5505,7 @@
     </row>
     <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B175" s="26" t="s">
         <v>16</v>
@@ -5520,7 +5531,7 @@
         <v>17</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C176" s="28"/>
       <c r="D176" s="19"/>
@@ -5578,10 +5589,10 @@
     </row>
     <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
@@ -5604,7 +5615,7 @@
         <v>17</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C180" s="28"/>
       <c r="D180" s="19"/>
@@ -5662,10 +5673,10 @@
     </row>
     <row r="183" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
@@ -5688,7 +5699,7 @@
         <v>17</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C184" s="28"/>
       <c r="D184" s="19"/>
@@ -5728,7 +5739,7 @@
     <row r="186" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="27"/>
       <c r="B186" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C186" s="32"/>
       <c r="D186" s="32"/>
@@ -5786,10 +5797,10 @@
     </row>
     <row r="189" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
@@ -5812,7 +5823,7 @@
         <v>17</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C190" s="28"/>
       <c r="D190" s="19"/>
@@ -5870,10 +5881,10 @@
     </row>
     <row r="193" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
@@ -5893,10 +5904,10 @@
     </row>
     <row r="194" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B194" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="B194" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="C194" s="28"/>
       <c r="D194" s="19"/>
@@ -5954,10 +5965,10 @@
     </row>
     <row r="197" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
@@ -5977,10 +5988,10 @@
     </row>
     <row r="198" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B198" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="B198" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="C198" s="28"/>
       <c r="D198" s="19"/>
@@ -6038,10 +6049,10 @@
     </row>
     <row r="201" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
@@ -6061,10 +6072,10 @@
     </row>
     <row r="202" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C202" s="28"/>
       <c r="D202" s="19"/>
@@ -6122,10 +6133,10 @@
     </row>
     <row r="205" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C205" s="43"/>
       <c r="D205" s="43"/>
@@ -6146,7 +6157,7 @@
     <row r="206" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="44"/>
       <c r="B206" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C206" s="46"/>
       <c r="D206" s="47"/>
@@ -6186,7 +6197,7 @@
     <row r="208" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="47"/>
       <c r="B208" s="48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C208" s="48"/>
       <c r="D208" s="48"/>
@@ -6206,10 +6217,10 @@
     </row>
     <row r="209" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B209" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C209" s="50"/>
       <c r="D209" s="50"/>
@@ -6229,7 +6240,7 @@
     </row>
     <row r="210" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B210" s="26" t="s">
         <v>16</v>
@@ -6255,7 +6266,7 @@
         <v>17</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C211" s="46"/>
       <c r="D211" s="47"/>
@@ -6313,10 +6324,10 @@
     </row>
     <row r="214" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C214" s="26"/>
       <c r="D214" s="26"/>
@@ -6336,10 +6347,10 @@
     </row>
     <row r="215" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B215" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C215" s="46"/>
       <c r="D215" s="47"/>
@@ -6359,7 +6370,7 @@
     </row>
     <row r="216" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -6399,10 +6410,10 @@
     </row>
     <row r="218" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C218" s="26"/>
       <c r="D218" s="26"/>
@@ -6425,7 +6436,7 @@
         <v>17</v>
       </c>
       <c r="B219" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C219" s="46"/>
       <c r="D219" s="47"/>
@@ -6465,7 +6476,7 @@
     <row r="221" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="51"/>
       <c r="B221" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C221" s="46"/>
       <c r="D221" s="47"/>
@@ -6523,10 +6534,10 @@
     </row>
     <row r="224" customFormat="false" ht="43.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B224" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C224" s="50"/>
       <c r="D224" s="50"/>
@@ -6546,7 +6557,7 @@
     </row>
     <row r="225" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>16</v>
@@ -6572,7 +6583,7 @@
         <v>17</v>
       </c>
       <c r="B226" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C226" s="46"/>
       <c r="D226" s="47"/>
@@ -6630,10 +6641,10 @@
     </row>
     <row r="229" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C229" s="26"/>
       <c r="D229" s="26"/>
@@ -6653,10 +6664,10 @@
     </row>
     <row r="230" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B230" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C230" s="46"/>
       <c r="D230" s="47"/>
@@ -6676,7 +6687,7 @@
     </row>
     <row r="231" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -6716,10 +6727,10 @@
     </row>
     <row r="233" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C233" s="26"/>
       <c r="D233" s="26"/>
@@ -6742,7 +6753,7 @@
         <v>17</v>
       </c>
       <c r="B234" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C234" s="46"/>
       <c r="D234" s="47"/>
@@ -6782,7 +6793,7 @@
     <row r="236" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="51"/>
       <c r="B236" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C236" s="46"/>
       <c r="D236" s="47"/>
@@ -6840,10 +6851,10 @@
     </row>
     <row r="239" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B239" s="50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C239" s="50"/>
       <c r="D239" s="50"/>
@@ -6863,7 +6874,7 @@
     </row>
     <row r="240" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B240" s="26" t="s">
         <v>16</v>
@@ -6889,7 +6900,7 @@
         <v>17</v>
       </c>
       <c r="B241" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C241" s="46"/>
       <c r="D241" s="47"/>
@@ -6947,10 +6958,10 @@
     </row>
     <row r="244" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C244" s="26"/>
       <c r="D244" s="26"/>
@@ -6970,10 +6981,10 @@
     </row>
     <row r="245" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B245" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C245" s="46"/>
       <c r="D245" s="47"/>
@@ -6993,7 +7004,7 @@
     </row>
     <row r="246" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -7033,10 +7044,10 @@
     </row>
     <row r="248" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C248" s="26"/>
       <c r="D248" s="26"/>
@@ -7059,7 +7070,7 @@
         <v>17</v>
       </c>
       <c r="B249" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C249" s="46"/>
       <c r="D249" s="47"/>
@@ -7099,7 +7110,7 @@
     <row r="251" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="51"/>
       <c r="B251" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C251" s="46"/>
       <c r="D251" s="47"/>
@@ -7176,10 +7187,10 @@
     </row>
     <row r="255" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C255" s="26"/>
       <c r="D255" s="26"/>
@@ -7199,10 +7210,10 @@
     </row>
     <row r="256" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C256" s="28"/>
       <c r="D256" s="19"/>
@@ -7260,10 +7271,10 @@
     </row>
     <row r="259" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C259" s="26"/>
       <c r="D259" s="26"/>
@@ -7286,7 +7297,7 @@
         <v>17</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C260" s="28"/>
       <c r="D260" s="19"/>
@@ -7344,10 +7355,10 @@
     </row>
     <row r="263" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C263" s="26"/>
       <c r="D263" s="26"/>
@@ -7370,7 +7381,7 @@
         <v>17</v>
       </c>
       <c r="B264" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C264" s="28"/>
       <c r="D264" s="19"/>
@@ -7428,10 +7439,10 @@
     </row>
     <row r="267" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C267" s="26"/>
       <c r="D267" s="26"/>
@@ -7451,10 +7462,10 @@
     </row>
     <row r="268" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B268" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C268" s="28"/>
       <c r="D268" s="19"/>
@@ -7512,10 +7523,10 @@
     </row>
     <row r="271" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C271" s="26"/>
       <c r="D271" s="26"/>
@@ -7535,10 +7546,10 @@
     </row>
     <row r="272" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C272" s="28"/>
       <c r="D272" s="19"/>
@@ -7599,7 +7610,7 @@
         <v>1.5</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -7620,7 +7631,7 @@
     <row r="276" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="19"/>
       <c r="B276" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C276" s="19"/>
       <c r="D276" s="24"/>
@@ -7660,7 +7671,7 @@
     <row r="278" customFormat="false" ht="98.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="19"/>
       <c r="B278" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C278" s="39"/>
       <c r="D278" s="39"/>
@@ -7699,10 +7710,10 @@
     </row>
     <row r="280" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B280" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C280" s="41"/>
       <c r="D280" s="41"/>
@@ -7723,7 +7734,7 @@
     <row r="281" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="31"/>
       <c r="B281" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C281" s="28"/>
       <c r="D281" s="19"/>
@@ -7762,7 +7773,7 @@
     </row>
     <row r="283" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B283" s="26" t="s">
         <v>16</v>
@@ -7788,7 +7799,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C284" s="28"/>
       <c r="D284" s="19"/>
@@ -7809,7 +7820,7 @@
     <row r="285" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="19"/>
       <c r="B285" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C285" s="34"/>
       <c r="D285" s="34"/>
@@ -7848,10 +7859,10 @@
     </row>
     <row r="287" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C287" s="26"/>
       <c r="D287" s="26"/>
@@ -7871,10 +7882,10 @@
     </row>
     <row r="288" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B288" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C288" s="28"/>
       <c r="D288" s="19"/>
@@ -7914,7 +7925,7 @@
     <row r="290" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="36"/>
       <c r="B290" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C290" s="28"/>
       <c r="D290" s="19"/>
@@ -8016,10 +8027,10 @@
     </row>
     <row r="295" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C295" s="26"/>
       <c r="D295" s="26"/>
@@ -8042,7 +8053,7 @@
         <v>17</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C296" s="28"/>
       <c r="D296" s="19"/>
@@ -8063,7 +8074,7 @@
     <row r="297" customFormat="false" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="19"/>
       <c r="B297" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C297" s="34"/>
       <c r="D297" s="34"/>
@@ -8102,10 +8113,10 @@
     </row>
     <row r="299" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C299" s="26"/>
       <c r="D299" s="26"/>
@@ -8125,10 +8136,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B300" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C300" s="28"/>
       <c r="D300" s="19"/>
@@ -8168,7 +8179,7 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="31"/>
       <c r="B302" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C302" s="28"/>
       <c r="D302" s="19"/>
@@ -8189,7 +8200,7 @@
     <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="31"/>
       <c r="B303" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C303" s="34"/>
       <c r="D303" s="34"/>
@@ -8228,10 +8239,10 @@
     </row>
     <row r="305" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C305" s="26"/>
       <c r="D305" s="26"/>
@@ -8254,7 +8265,7 @@
         <v>17</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C306" s="28"/>
       <c r="D306" s="19"/>
@@ -8294,7 +8305,7 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="27"/>
       <c r="B308" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C308" s="28"/>
       <c r="D308" s="19"/>
@@ -8352,10 +8363,10 @@
     </row>
     <row r="311" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B311" s="41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C311" s="41"/>
       <c r="D311" s="41"/>
@@ -8376,7 +8387,7 @@
     <row r="312" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="31"/>
       <c r="B312" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C312" s="28"/>
       <c r="D312" s="19"/>
@@ -8416,7 +8427,7 @@
     <row r="314" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="27"/>
       <c r="B314" s="55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C314" s="55"/>
       <c r="D314" s="55"/>
@@ -8455,7 +8466,7 @@
     </row>
     <row r="316" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B316" s="26" t="s">
         <v>16</v>
@@ -8481,7 +8492,7 @@
         <v>17</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C317" s="28"/>
       <c r="D317" s="19"/>
@@ -8502,7 +8513,7 @@
     <row r="318" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="19"/>
       <c r="B318" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C318" s="34"/>
       <c r="D318" s="34"/>
@@ -8541,10 +8552,10 @@
     </row>
     <row r="320" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C320" s="26"/>
       <c r="D320" s="26"/>
@@ -8564,10 +8575,10 @@
     </row>
     <row r="321" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B321" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C321" s="28"/>
       <c r="D321" s="19"/>
@@ -8607,7 +8618,7 @@
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="36"/>
       <c r="B323" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C323" s="28"/>
       <c r="D323" s="19"/>
@@ -8667,10 +8678,10 @@
     </row>
     <row r="326" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C326" s="26"/>
       <c r="D326" s="26"/>
@@ -8693,7 +8704,7 @@
         <v>17</v>
       </c>
       <c r="B327" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C327" s="28"/>
       <c r="D327" s="19"/>
@@ -8714,7 +8725,7 @@
     <row r="328" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="19"/>
       <c r="B328" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C328" s="34"/>
       <c r="D328" s="34"/>
@@ -8753,10 +8764,10 @@
     </row>
     <row r="330" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C330" s="26"/>
       <c r="D330" s="26"/>
@@ -8776,10 +8787,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C331" s="28"/>
       <c r="D331" s="19"/>
@@ -8819,7 +8830,7 @@
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="31"/>
       <c r="B333" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C333" s="28"/>
       <c r="D333" s="19"/>
@@ -8840,7 +8851,7 @@
     <row r="334" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="31"/>
       <c r="B334" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C334" s="34"/>
       <c r="D334" s="34"/>
@@ -8879,10 +8890,10 @@
     </row>
     <row r="336" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C336" s="26"/>
       <c r="D336" s="26"/>
@@ -8905,7 +8916,7 @@
         <v>17</v>
       </c>
       <c r="B337" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C337" s="28"/>
       <c r="D337" s="19"/>
@@ -8945,7 +8956,7 @@
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="27"/>
       <c r="B339" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C339" s="28"/>
       <c r="D339" s="19"/>
@@ -9006,7 +9017,7 @@
         <v>1.6</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -9027,7 +9038,7 @@
     <row r="343" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="19"/>
       <c r="B343" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C343" s="19"/>
       <c r="D343" s="19"/>
@@ -9066,7 +9077,7 @@
     </row>
     <row r="345" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B345" s="26" t="s">
         <v>16</v>
@@ -9092,7 +9103,7 @@
         <v>17</v>
       </c>
       <c r="B346" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C346" s="28"/>
       <c r="D346" s="19"/>
@@ -9113,7 +9124,7 @@
     <row r="347" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="19"/>
       <c r="B347" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C347" s="29"/>
       <c r="D347" s="29"/>
@@ -9152,10 +9163,10 @@
     </row>
     <row r="349" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C349" s="26"/>
       <c r="D349" s="26"/>
@@ -9178,7 +9189,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C350" s="28"/>
       <c r="D350" s="19"/>
@@ -9199,7 +9210,7 @@
     <row r="351" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="19"/>
       <c r="B351" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C351" s="34"/>
       <c r="D351" s="34"/>
@@ -9238,10 +9249,10 @@
     </row>
     <row r="353" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C353" s="26"/>
       <c r="D353" s="26"/>
@@ -9264,7 +9275,7 @@
         <v>17</v>
       </c>
       <c r="B354" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C354" s="28"/>
       <c r="D354" s="19"/>
@@ -9285,7 +9296,7 @@
     <row r="355" customFormat="false" ht="151.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="19"/>
       <c r="B355" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C355" s="34"/>
       <c r="D355" s="34"/>
@@ -9324,10 +9335,10 @@
     </row>
     <row r="357" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C357" s="26"/>
       <c r="D357" s="26"/>
@@ -9350,7 +9361,7 @@
         <v>17</v>
       </c>
       <c r="B358" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C358" s="28"/>
       <c r="D358" s="19"/>
@@ -9390,7 +9401,7 @@
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="27"/>
       <c r="B360" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C360" s="28"/>
       <c r="D360" s="19"/>
@@ -9411,7 +9422,7 @@
     <row r="361" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="19"/>
       <c r="B361" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C361" s="34"/>
       <c r="D361" s="34"/>
@@ -9452,7 +9463,7 @@
         <v>1.7</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C363" s="23"/>
       <c r="D363" s="23"/>
@@ -9473,7 +9484,7 @@
     <row r="364" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="19"/>
       <c r="B364" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C364" s="19"/>
       <c r="D364" s="19"/>
@@ -9512,10 +9523,10 @@
     </row>
     <row r="366" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B366" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C366" s="26"/>
       <c r="D366" s="26"/>
@@ -9535,10 +9546,10 @@
     </row>
     <row r="367" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B367" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C367" s="28"/>
       <c r="D367" s="19"/>
@@ -9598,10 +9609,10 @@
     </row>
     <row r="370" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B370" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C370" s="26"/>
       <c r="D370" s="26"/>
@@ -9621,10 +9632,10 @@
     </row>
     <row r="371" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B371" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C371" s="28"/>
       <c r="D371" s="19"/>
@@ -9686,14 +9697,14 @@
         <v>1.8</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C374" s="23"/>
       <c r="D374" s="23"/>
     </row>
     <row r="375" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C375" s="56"/>
       <c r="D375" s="56"/>
@@ -9706,7 +9717,7 @@
     <row r="377" s="15" customFormat="true" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="57"/>
       <c r="B377" s="58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C377" s="58"/>
       <c r="D377" s="58"/>
@@ -9718,20 +9729,20 @@
     </row>
     <row r="379" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B379" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
     </row>
     <row r="380" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B380" s="58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C380" s="58"/>
       <c r="D380" s="58"/>
@@ -9739,7 +9750,7 @@
     <row r="381" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="60"/>
       <c r="B381" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C381" s="34"/>
       <c r="D381" s="34"/>
@@ -9753,7 +9764,7 @@
     <row r="383" s="15" customFormat="true" ht="33.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="63"/>
       <c r="B383" s="64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C383" s="64"/>
       <c r="D383" s="64"/>
@@ -9766,10 +9777,10 @@
     </row>
     <row r="385" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B385" s="68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C385" s="68"/>
       <c r="D385" s="68"/>
@@ -9777,7 +9788,7 @@
     <row r="386" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="57"/>
       <c r="B386" s="56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C386" s="56"/>
       <c r="D386" s="56"/>
@@ -9791,26 +9802,28 @@
     <row r="388" s="15" customFormat="true" ht="97.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="57"/>
       <c r="B388" s="64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C388" s="64"/>
       <c r="D388" s="64"/>
     </row>
     <row r="389" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B389" s="26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
     </row>
     <row r="390" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B390" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="B390" s="34" t="s">
+        <v>234</v>
+      </c>
       <c r="C390" s="34"/>
       <c r="D390" s="34"/>
     </row>
@@ -9822,19 +9835,21 @@
     </row>
     <row r="392" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B392" s="26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C392" s="26"/>
       <c r="D392" s="26"/>
     </row>
     <row r="393" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B393" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="B393" s="34" t="s">
+        <v>234</v>
+      </c>
       <c r="C393" s="34"/>
       <c r="D393" s="34"/>
     </row>
@@ -9846,19 +9861,21 @@
     </row>
     <row r="395" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B395" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
     </row>
     <row r="396" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B396" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="B396" s="34" t="s">
+        <v>239</v>
+      </c>
       <c r="C396" s="34"/>
       <c r="D396" s="34"/>
     </row>
@@ -9870,19 +9887,21 @@
     </row>
     <row r="398" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="25" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B398" s="26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C398" s="26"/>
       <c r="D398" s="26"/>
     </row>
     <row r="399" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B399" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="B399" s="34" t="s">
+        <v>239</v>
+      </c>
       <c r="C399" s="34"/>
       <c r="D399" s="34"/>
     </row>
@@ -9894,19 +9913,21 @@
     </row>
     <row r="401" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B401" s="26" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C401" s="26"/>
       <c r="D401" s="26"/>
     </row>
     <row r="402" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B402" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="B402" s="34" t="s">
+        <v>234</v>
+      </c>
       <c r="C402" s="34"/>
       <c r="D402" s="34"/>
     </row>
@@ -9918,19 +9939,21 @@
     </row>
     <row r="404" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="25" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B404" s="26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C404" s="26"/>
       <c r="D404" s="26"/>
     </row>
     <row r="405" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B405" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="B405" s="34" t="s">
+        <v>234</v>
+      </c>
       <c r="C405" s="34"/>
       <c r="D405" s="34"/>
     </row>
@@ -9945,14 +9968,14 @@
         <v>1.9</v>
       </c>
       <c r="B407" s="23" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C407" s="23"/>
       <c r="D407" s="23"/>
     </row>
     <row r="408" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B408" s="56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C408" s="56"/>
       <c r="D408" s="56"/>
@@ -9965,7 +9988,7 @@
     <row r="410" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="57"/>
       <c r="B410" s="58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C410" s="58"/>
       <c r="D410" s="58"/>
@@ -9977,20 +10000,20 @@
     </row>
     <row r="412" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B412" s="26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C412" s="26"/>
       <c r="D412" s="26"/>
     </row>
     <row r="413" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B413" s="58" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C413" s="58"/>
       <c r="D413" s="58"/>
@@ -9998,7 +10021,7 @@
     <row r="414" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="60"/>
       <c r="B414" s="34" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C414" s="34"/>
       <c r="D414" s="34"/>
@@ -10012,7 +10035,7 @@
     <row r="416" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="63"/>
       <c r="B416" s="64" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C416" s="64"/>
       <c r="D416" s="64"/>
@@ -10025,10 +10048,10 @@
     </row>
     <row r="418" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="67" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B418" s="68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C418" s="68"/>
       <c r="D418" s="68"/>
@@ -10036,7 +10059,7 @@
     <row r="419" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="57"/>
       <c r="B419" s="56" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C419" s="56"/>
       <c r="D419" s="56"/>
@@ -10050,7 +10073,7 @@
     <row r="421" s="15" customFormat="true" ht="220" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="57"/>
       <c r="B421" s="64" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C421" s="64"/>
       <c r="D421" s="64"/>
@@ -10063,20 +10086,20 @@
     </row>
     <row r="423" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B423" s="26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C423" s="26"/>
       <c r="D423" s="26"/>
     </row>
     <row r="424" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B424" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C424" s="34"/>
       <c r="D424" s="34"/>
@@ -10089,20 +10112,20 @@
     </row>
     <row r="426" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="25" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B426" s="26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C426" s="26"/>
       <c r="D426" s="26"/>
     </row>
     <row r="427" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B427" s="34" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C427" s="34"/>
       <c r="D427" s="34"/>
@@ -10110,19 +10133,19 @@
     <row r="428" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="63"/>
       <c r="B428" s="34" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="429" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="63"/>
       <c r="B429" s="34" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="430" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="63"/>
       <c r="B430" s="34" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="431" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10133,20 +10156,20 @@
     </row>
     <row r="432" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="25" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B432" s="26" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C432" s="26"/>
       <c r="D432" s="26"/>
     </row>
     <row r="433" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B433" s="34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C433" s="34"/>
       <c r="D433" s="34"/>
@@ -10159,20 +10182,20 @@
     </row>
     <row r="435" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B435" s="26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C435" s="26"/>
       <c r="D435" s="26"/>
     </row>
     <row r="436" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B436" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C436" s="34"/>
       <c r="D436" s="34"/>
@@ -10185,20 +10208,20 @@
     </row>
     <row r="438" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="25" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B438" s="26" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C438" s="26"/>
       <c r="D438" s="26"/>
     </row>
     <row r="439" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B439" s="34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C439" s="34"/>
       <c r="D439" s="34"/>
@@ -10211,20 +10234,20 @@
     </row>
     <row r="441" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B441" s="26" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C441" s="26"/>
       <c r="D441" s="26"/>
     </row>
     <row r="442" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C442" s="34"/>
       <c r="D442" s="34"/>
@@ -10237,20 +10260,20 @@
     </row>
     <row r="444" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="25" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B444" s="26" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C444" s="26"/>
       <c r="D444" s="26"/>
     </row>
     <row r="445" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C445" s="34"/>
       <c r="D445" s="34"/>
@@ -10263,20 +10286,20 @@
     </row>
     <row r="447" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="25" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B447" s="26" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C447" s="26"/>
       <c r="D447" s="26"/>
     </row>
     <row r="448" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B448" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C448" s="34"/>
       <c r="D448" s="34"/>
@@ -10289,20 +10312,20 @@
     </row>
     <row r="450" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="25" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B450" s="26" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C450" s="26"/>
       <c r="D450" s="26"/>
     </row>
     <row r="451" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B451" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C451" s="34"/>
       <c r="D451" s="34"/>
@@ -10315,20 +10338,20 @@
     </row>
     <row r="453" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="25" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B453" s="26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C453" s="26"/>
       <c r="D453" s="26"/>
     </row>
     <row r="454" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B454" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C454" s="34"/>
       <c r="D454" s="34"/>
@@ -10341,20 +10364,20 @@
     </row>
     <row r="456" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="25" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C456" s="26"/>
       <c r="D456" s="26"/>
     </row>
     <row r="457" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B457" s="34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C457" s="34"/>
       <c r="D457" s="34"/>
@@ -10367,20 +10390,20 @@
     </row>
     <row r="459" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="25" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B459" s="26" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C459" s="26"/>
       <c r="D459" s="26"/>
     </row>
     <row r="460" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B460" s="34" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C460" s="34"/>
       <c r="D460" s="34"/>
@@ -10393,20 +10416,20 @@
     </row>
     <row r="462" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="25" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B462" s="26" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C462" s="26"/>
       <c r="D462" s="26"/>
     </row>
     <row r="463" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B463" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C463" s="34"/>
       <c r="D463" s="34"/>
@@ -10419,20 +10442,20 @@
     </row>
     <row r="465" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="25" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B465" s="26" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C465" s="26"/>
       <c r="D465" s="26"/>
     </row>
     <row r="466" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B466" s="34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C466" s="34"/>
       <c r="D466" s="34"/>
@@ -10445,20 +10468,20 @@
     </row>
     <row r="468" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="25" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B468" s="26" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C468" s="26"/>
       <c r="D468" s="26"/>
     </row>
     <row r="469" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B469" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C469" s="34"/>
       <c r="D469" s="34"/>
@@ -10471,20 +10494,20 @@
     </row>
     <row r="471" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="25" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B471" s="26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C471" s="26"/>
       <c r="D471" s="26"/>
     </row>
     <row r="472" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B472" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C472" s="34"/>
       <c r="D472" s="34"/>
@@ -10497,20 +10520,20 @@
     </row>
     <row r="474" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="25" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B474" s="26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C474" s="26"/>
       <c r="D474" s="26"/>
     </row>
     <row r="475" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B475" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C475" s="34"/>
       <c r="D475" s="34"/>
@@ -11117,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -11303,7 +11326,7 @@
         <v>1.2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -11313,7 +11336,7 @@
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" s="24"/>
@@ -11330,10 +11353,10 @@
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -11345,7 +11368,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="0"/>
@@ -11363,7 +11386,7 @@
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="57"/>
       <c r="B26" s="58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
@@ -11388,10 +11411,10 @@
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -11403,7 +11426,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="0"/>
@@ -11428,10 +11451,10 @@
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -11443,7 +11466,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="0"/>
@@ -11461,7 +11484,7 @@
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="74"/>
       <c r="B36" s="73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="0"/>
@@ -11486,10 +11509,10 @@
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -11501,7 +11524,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="0"/>
@@ -11519,7 +11542,7 @@
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="74"/>
       <c r="B42" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="0"/>
@@ -11528,7 +11551,7 @@
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -11546,7 +11569,7 @@
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -11564,10 +11587,10 @@
     </row>
     <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -11579,7 +11602,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="0"/>
@@ -11607,7 +11630,7 @@
         <v>1.3</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -11617,7 +11640,7 @@
     <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
       <c r="B52" s="70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" s="24"/>
@@ -11634,10 +11657,10 @@
     </row>
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -11649,7 +11672,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="0"/>
@@ -11667,7 +11690,7 @@
     <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="57"/>
       <c r="B57" s="58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
@@ -11692,10 +11715,10 @@
     </row>
     <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -11707,7 +11730,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" s="73"/>
       <c r="D61" s="0"/>
@@ -11735,7 +11758,7 @@
         <v>1.4</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -11745,7 +11768,7 @@
     <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
       <c r="B65" s="70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="24"/>
@@ -11763,7 +11786,7 @@
     <row r="67" customFormat="false" ht="65.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
       <c r="B67" s="77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="77"/>
       <c r="D67" s="77"/>
@@ -11780,10 +11803,10 @@
     </row>
     <row r="69" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
@@ -11793,7 +11816,7 @@
     <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="63"/>
       <c r="B70" s="70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="73"/>
       <c r="D70" s="0"/>
@@ -11810,7 +11833,7 @@
     </row>
     <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>16</v>
@@ -11825,7 +11848,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="0"/>
@@ -11850,10 +11873,10 @@
     </row>
     <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -11865,7 +11888,7 @@
         <v>17</v>
       </c>
       <c r="B77" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" s="73"/>
       <c r="D77" s="0"/>
@@ -11890,10 +11913,10 @@
     </row>
     <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -11905,7 +11928,7 @@
         <v>17</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="73"/>
       <c r="D81" s="0"/>
@@ -11923,7 +11946,7 @@
     <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="57"/>
       <c r="B83" s="58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C83" s="58"/>
       <c r="D83" s="58"/>
@@ -11948,10 +11971,10 @@
     </row>
     <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -11963,7 +11986,7 @@
         <v>17</v>
       </c>
       <c r="B87" s="73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="0"/>
@@ -11988,10 +12011,10 @@
     </row>
     <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -12000,10 +12023,10 @@
     </row>
     <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="73" t="s">
         <v>82</v>
-      </c>
-      <c r="B91" s="73" t="s">
-        <v>81</v>
       </c>
       <c r="C91" s="73"/>
       <c r="D91" s="0"/>
@@ -12028,10 +12051,10 @@
     </row>
     <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -12040,10 +12063,10 @@
     </row>
     <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="73" t="s">
         <v>85</v>
-      </c>
-      <c r="B95" s="73" t="s">
-        <v>84</v>
       </c>
       <c r="C95" s="73"/>
       <c r="D95" s="0"/>
@@ -12068,10 +12091,10 @@
     </row>
     <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -12080,10 +12103,10 @@
     </row>
     <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B99" s="73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C99" s="73"/>
       <c r="D99" s="0"/>
@@ -12108,10 +12131,10 @@
     </row>
     <row r="102" customFormat="false" ht="45.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -12121,7 +12144,7 @@
     <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="44"/>
       <c r="B103" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C103" s="46"/>
       <c r="D103" s="47"/>
@@ -12139,7 +12162,7 @@
     <row r="105" customFormat="false" ht="58.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="47"/>
       <c r="B105" s="48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C105" s="48"/>
       <c r="D105" s="48"/>
@@ -12148,10 +12171,10 @@
     </row>
     <row r="106" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
@@ -12160,7 +12183,7 @@
     </row>
     <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>16</v>
@@ -12175,7 +12198,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C108" s="46"/>
       <c r="D108" s="47"/>
@@ -12200,10 +12223,10 @@
     </row>
     <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -12212,10 +12235,10 @@
     </row>
     <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="47"/>
@@ -12224,7 +12247,7 @@
     </row>
     <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -12242,10 +12265,10 @@
     </row>
     <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
@@ -12257,7 +12280,7 @@
         <v>17</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="47"/>
@@ -12275,7 +12298,7 @@
     <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="51"/>
       <c r="B118" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="46"/>
@@ -12300,10 +12323,10 @@
     </row>
     <row r="121" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B121" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C121" s="50"/>
       <c r="D121" s="50"/>
@@ -12312,7 +12335,7 @@
     </row>
     <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>16</v>
@@ -12327,7 +12350,7 @@
         <v>17</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="47"/>
@@ -12352,10 +12375,10 @@
     </row>
     <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
@@ -12364,10 +12387,10 @@
     </row>
     <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" s="46"/>
       <c r="D127" s="47"/>
@@ -12376,7 +12399,7 @@
     </row>
     <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -12394,10 +12417,10 @@
     </row>
     <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
@@ -12409,7 +12432,7 @@
         <v>17</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="47"/>
@@ -12427,7 +12450,7 @@
     <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="51"/>
       <c r="B133" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="47"/>
@@ -12452,10 +12475,10 @@
     </row>
     <row r="136" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
@@ -12464,7 +12487,7 @@
     </row>
     <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B137" s="26" t="s">
         <v>16</v>
@@ -12479,7 +12502,7 @@
         <v>17</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="47"/>
@@ -12504,10 +12527,10 @@
     </row>
     <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
@@ -12516,10 +12539,10 @@
     </row>
     <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C142" s="46"/>
       <c r="D142" s="47"/>
@@ -12528,7 +12551,7 @@
     </row>
     <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -12546,10 +12569,10 @@
     </row>
     <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -12561,7 +12584,7 @@
         <v>17</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C146" s="46"/>
       <c r="D146" s="47"/>
@@ -12579,7 +12602,7 @@
     <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="51"/>
       <c r="B148" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C148" s="46"/>
       <c r="D148" s="47"/>
@@ -12612,10 +12635,10 @@
     </row>
     <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
@@ -12624,10 +12647,10 @@
     </row>
     <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B153" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C153" s="73"/>
       <c r="D153" s="0"/>
@@ -12652,10 +12675,10 @@
     </row>
     <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
@@ -12667,7 +12690,7 @@
         <v>17</v>
       </c>
       <c r="B157" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C157" s="73"/>
       <c r="D157" s="0"/>
@@ -12692,10 +12715,10 @@
     </row>
     <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -12707,7 +12730,7 @@
         <v>17</v>
       </c>
       <c r="B161" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C161" s="73"/>
       <c r="D161" s="0"/>
@@ -12732,10 +12755,10 @@
     </row>
     <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -12744,10 +12767,10 @@
     </row>
     <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B165" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C165" s="73"/>
       <c r="D165" s="0"/>
@@ -12772,10 +12795,10 @@
     </row>
     <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
@@ -12784,10 +12807,10 @@
     </row>
     <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B169" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C169" s="73"/>
       <c r="D169" s="0"/>
@@ -12812,10 +12835,10 @@
     </row>
     <row r="172" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B172" s="41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C172" s="41"/>
       <c r="D172" s="41"/>
@@ -12825,7 +12848,7 @@
     <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="63"/>
       <c r="B173" s="70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C173" s="73"/>
       <c r="D173" s="0"/>
@@ -12842,7 +12865,7 @@
     </row>
     <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B175" s="26" t="s">
         <v>16</v>
@@ -12857,7 +12880,7 @@
         <v>17</v>
       </c>
       <c r="B176" s="73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C176" s="73"/>
       <c r="D176" s="0"/>
@@ -12882,10 +12905,10 @@
     </row>
     <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
@@ -12897,7 +12920,7 @@
         <v>17</v>
       </c>
       <c r="B180" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C180" s="73"/>
       <c r="D180" s="0"/>
@@ -12922,10 +12945,10 @@
     </row>
     <row r="183" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
@@ -12937,7 +12960,7 @@
         <v>17</v>
       </c>
       <c r="B184" s="73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C184" s="73"/>
       <c r="D184" s="0"/>
@@ -12955,7 +12978,7 @@
     <row r="186" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="57"/>
       <c r="B186" s="58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C186" s="58"/>
       <c r="D186" s="58"/>
@@ -12980,10 +13003,10 @@
     </row>
     <row r="189" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
@@ -12995,7 +13018,7 @@
         <v>17</v>
       </c>
       <c r="B190" s="73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C190" s="73"/>
       <c r="D190" s="0"/>
@@ -13020,10 +13043,10 @@
     </row>
     <row r="193" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
@@ -13032,10 +13055,10 @@
     </row>
     <row r="194" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B194" s="73" t="s">
         <v>82</v>
-      </c>
-      <c r="B194" s="73" t="s">
-        <v>81</v>
       </c>
       <c r="C194" s="73"/>
       <c r="D194" s="0"/>
@@ -13060,10 +13083,10 @@
     </row>
     <row r="197" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
@@ -13072,10 +13095,10 @@
     </row>
     <row r="198" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B198" s="73" t="s">
         <v>85</v>
-      </c>
-      <c r="B198" s="73" t="s">
-        <v>84</v>
       </c>
       <c r="C198" s="73"/>
       <c r="D198" s="0"/>
@@ -13100,10 +13123,10 @@
     </row>
     <row r="201" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
@@ -13112,10 +13135,10 @@
     </row>
     <row r="202" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B202" s="73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C202" s="73"/>
       <c r="D202" s="0"/>
@@ -13140,10 +13163,10 @@
     </row>
     <row r="205" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C205" s="43"/>
       <c r="D205" s="43"/>
@@ -13153,7 +13176,7 @@
     <row r="206" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="44"/>
       <c r="B206" s="45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C206" s="46"/>
       <c r="D206" s="47"/>
@@ -13171,7 +13194,7 @@
     <row r="208" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="47"/>
       <c r="B208" s="48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C208" s="48"/>
       <c r="D208" s="48"/>
@@ -13180,10 +13203,10 @@
     </row>
     <row r="209" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B209" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C209" s="50"/>
       <c r="D209" s="50"/>
@@ -13192,7 +13215,7 @@
     </row>
     <row r="210" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B210" s="26" t="s">
         <v>16</v>
@@ -13207,7 +13230,7 @@
         <v>17</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C211" s="46"/>
       <c r="D211" s="47"/>
@@ -13232,10 +13255,10 @@
     </row>
     <row r="214" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C214" s="26"/>
       <c r="D214" s="26"/>
@@ -13244,10 +13267,10 @@
     </row>
     <row r="215" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B215" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C215" s="46"/>
       <c r="D215" s="47"/>
@@ -13256,7 +13279,7 @@
     </row>
     <row r="216" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -13274,10 +13297,10 @@
     </row>
     <row r="218" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C218" s="26"/>
       <c r="D218" s="26"/>
@@ -13289,7 +13312,7 @@
         <v>17</v>
       </c>
       <c r="B219" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C219" s="46"/>
       <c r="D219" s="47"/>
@@ -13307,7 +13330,7 @@
     <row r="221" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="51"/>
       <c r="B221" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C221" s="46"/>
       <c r="D221" s="47"/>
@@ -13332,10 +13355,10 @@
     </row>
     <row r="224" customFormat="false" ht="43.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B224" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C224" s="50"/>
       <c r="D224" s="50"/>
@@ -13344,7 +13367,7 @@
     </row>
     <row r="225" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>16</v>
@@ -13359,7 +13382,7 @@
         <v>17</v>
       </c>
       <c r="B226" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C226" s="46"/>
       <c r="D226" s="47"/>
@@ -13384,10 +13407,10 @@
     </row>
     <row r="229" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C229" s="26"/>
       <c r="D229" s="26"/>
@@ -13396,10 +13419,10 @@
     </row>
     <row r="230" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B230" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C230" s="46"/>
       <c r="D230" s="47"/>
@@ -13408,7 +13431,7 @@
     </row>
     <row r="231" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -13426,10 +13449,10 @@
     </row>
     <row r="233" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C233" s="26"/>
       <c r="D233" s="26"/>
@@ -13441,7 +13464,7 @@
         <v>17</v>
       </c>
       <c r="B234" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C234" s="46"/>
       <c r="D234" s="47"/>
@@ -13459,7 +13482,7 @@
     <row r="236" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="51"/>
       <c r="B236" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C236" s="46"/>
       <c r="D236" s="47"/>
@@ -13484,10 +13507,10 @@
     </row>
     <row r="239" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B239" s="50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C239" s="50"/>
       <c r="D239" s="50"/>
@@ -13496,7 +13519,7 @@
     </row>
     <row r="240" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B240" s="26" t="s">
         <v>16</v>
@@ -13511,7 +13534,7 @@
         <v>17</v>
       </c>
       <c r="B241" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C241" s="46"/>
       <c r="D241" s="47"/>
@@ -13536,10 +13559,10 @@
     </row>
     <row r="244" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C244" s="26"/>
       <c r="D244" s="26"/>
@@ -13548,10 +13571,10 @@
     </row>
     <row r="245" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B245" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C245" s="46"/>
       <c r="D245" s="47"/>
@@ -13560,7 +13583,7 @@
     </row>
     <row r="246" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -13578,10 +13601,10 @@
     </row>
     <row r="248" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C248" s="26"/>
       <c r="D248" s="26"/>
@@ -13593,7 +13616,7 @@
         <v>17</v>
       </c>
       <c r="B249" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C249" s="46"/>
       <c r="D249" s="47"/>
@@ -13611,7 +13634,7 @@
     <row r="251" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="51"/>
       <c r="B251" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C251" s="46"/>
       <c r="D251" s="47"/>
@@ -13644,10 +13667,10 @@
     </row>
     <row r="255" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C255" s="26"/>
       <c r="D255" s="26"/>
@@ -13656,10 +13679,10 @@
     </row>
     <row r="256" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B256" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C256" s="73"/>
       <c r="D256" s="0"/>
@@ -13684,10 +13707,10 @@
     </row>
     <row r="259" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C259" s="26"/>
       <c r="D259" s="26"/>
@@ -13699,7 +13722,7 @@
         <v>17</v>
       </c>
       <c r="B260" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C260" s="73"/>
       <c r="D260" s="0"/>
@@ -13724,10 +13747,10 @@
     </row>
     <row r="263" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C263" s="26"/>
       <c r="D263" s="26"/>
@@ -13739,7 +13762,7 @@
         <v>17</v>
       </c>
       <c r="B264" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C264" s="73"/>
       <c r="D264" s="0"/>
@@ -13764,10 +13787,10 @@
     </row>
     <row r="267" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C267" s="26"/>
       <c r="D267" s="26"/>
@@ -13776,10 +13799,10 @@
     </row>
     <row r="268" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B268" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C268" s="73"/>
       <c r="D268" s="0"/>
@@ -13804,10 +13827,10 @@
     </row>
     <row r="271" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C271" s="26"/>
       <c r="D271" s="26"/>
@@ -13816,10 +13839,10 @@
     </row>
     <row r="272" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B272" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C272" s="73"/>
       <c r="D272" s="0"/>
@@ -13847,7 +13870,7 @@
         <v>1.5</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -13856,7 +13879,7 @@
     <row r="276" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0"/>
       <c r="B276" s="70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C276" s="0"/>
       <c r="D276" s="24"/>
@@ -13874,7 +13897,7 @@
     <row r="278" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="0"/>
       <c r="B278" s="77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C278" s="77"/>
       <c r="D278" s="77"/>
@@ -13891,10 +13914,10 @@
     </row>
     <row r="280" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B280" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C280" s="41"/>
       <c r="D280" s="41"/>
@@ -13904,7 +13927,7 @@
     <row r="281" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="63"/>
       <c r="B281" s="70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C281" s="73"/>
       <c r="D281" s="0"/>
@@ -13921,7 +13944,7 @@
     </row>
     <row r="283" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B283" s="26" t="s">
         <v>16</v>
@@ -13936,7 +13959,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C284" s="73"/>
       <c r="D284" s="0"/>
@@ -13961,10 +13984,10 @@
     </row>
     <row r="287" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C287" s="26"/>
       <c r="D287" s="26"/>
@@ -13973,10 +13996,10 @@
     </row>
     <row r="288" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B288" s="73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C288" s="73"/>
       <c r="D288" s="0"/>
@@ -13994,7 +14017,7 @@
     <row r="290" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="74"/>
       <c r="B290" s="73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C290" s="73"/>
       <c r="D290" s="0"/>
@@ -14035,10 +14058,10 @@
     </row>
     <row r="295" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C295" s="26"/>
       <c r="D295" s="26"/>
@@ -14050,7 +14073,7 @@
         <v>17</v>
       </c>
       <c r="B296" s="73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C296" s="73"/>
       <c r="D296" s="0"/>
@@ -14074,10 +14097,10 @@
     </row>
     <row r="299" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C299" s="26"/>
       <c r="D299" s="26"/>
@@ -14085,10 +14108,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B300" s="73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C300" s="73"/>
       <c r="D300" s="0"/>
@@ -14104,7 +14127,7 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="63"/>
       <c r="B302" s="73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C302" s="73"/>
       <c r="D302" s="0"/>
@@ -14126,10 +14149,10 @@
     </row>
     <row r="305" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C305" s="26"/>
       <c r="D305" s="26"/>
@@ -14140,7 +14163,7 @@
         <v>17</v>
       </c>
       <c r="B306" s="73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C306" s="73"/>
       <c r="D306" s="0"/>
@@ -14156,7 +14179,7 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="57"/>
       <c r="B308" s="73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C308" s="73"/>
       <c r="D308" s="0"/>
@@ -14178,10 +14201,10 @@
     </row>
     <row r="311" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B311" s="41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C311" s="41"/>
       <c r="D311" s="41"/>
@@ -14190,7 +14213,7 @@
     <row r="312" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="63"/>
       <c r="B312" s="70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C312" s="73"/>
       <c r="D312" s="0"/>
@@ -14206,7 +14229,7 @@
     <row r="314" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="57"/>
       <c r="B314" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C314" s="64"/>
       <c r="D314" s="64"/>
@@ -14221,7 +14244,7 @@
     </row>
     <row r="316" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B316" s="26" t="s">
         <v>16</v>
@@ -14235,7 +14258,7 @@
         <v>17</v>
       </c>
       <c r="B317" s="73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C317" s="73"/>
       <c r="D317" s="0"/>
@@ -14257,10 +14280,10 @@
     </row>
     <row r="320" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C320" s="26"/>
       <c r="D320" s="26"/>
@@ -14268,10 +14291,10 @@
     </row>
     <row r="321" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B321" s="73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C321" s="73"/>
       <c r="D321" s="0"/>
@@ -14287,7 +14310,7 @@
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="74"/>
       <c r="B323" s="73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C323" s="73"/>
       <c r="D323" s="0"/>
@@ -14309,10 +14332,10 @@
     </row>
     <row r="326" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C326" s="26"/>
       <c r="D326" s="26"/>
@@ -14323,7 +14346,7 @@
         <v>17</v>
       </c>
       <c r="B327" s="73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C327" s="73"/>
       <c r="D327" s="0"/>
@@ -14345,10 +14368,10 @@
     </row>
     <row r="330" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C330" s="26"/>
       <c r="D330" s="26"/>
@@ -14356,10 +14379,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B331" s="73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C331" s="73"/>
       <c r="D331" s="0"/>
@@ -14375,7 +14398,7 @@
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="63"/>
       <c r="B333" s="73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C333" s="73"/>
       <c r="D333" s="0"/>
@@ -14397,10 +14420,10 @@
     </row>
     <row r="336" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C336" s="26"/>
       <c r="D336" s="26"/>
@@ -14411,7 +14434,7 @@
         <v>17</v>
       </c>
       <c r="B337" s="73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C337" s="73"/>
       <c r="D337" s="0"/>
@@ -14427,7 +14450,7 @@
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="57"/>
       <c r="B339" s="73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C339" s="73"/>
       <c r="D339" s="0"/>
@@ -14451,7 +14474,7 @@
         <v>1.6</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -14459,7 +14482,7 @@
     <row r="343" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="0"/>
       <c r="B343" s="70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C343" s="0"/>
       <c r="D343" s="0"/>
@@ -14472,7 +14495,7 @@
     </row>
     <row r="345" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B345" s="26" t="s">
         <v>16</v>
@@ -14486,7 +14509,7 @@
         <v>17</v>
       </c>
       <c r="B346" s="73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C346" s="73"/>
       <c r="D346" s="0"/>
@@ -14508,10 +14531,10 @@
     </row>
     <row r="349" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C349" s="26"/>
       <c r="D349" s="26"/>
@@ -14522,7 +14545,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C350" s="73"/>
       <c r="D350" s="0"/>
@@ -14544,10 +14567,10 @@
     </row>
     <row r="353" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C353" s="26"/>
       <c r="D353" s="26"/>
@@ -14558,7 +14581,7 @@
         <v>17</v>
       </c>
       <c r="B354" s="73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C354" s="73"/>
       <c r="D354" s="0"/>
@@ -14580,10 +14603,10 @@
     </row>
     <row r="357" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C357" s="26"/>
       <c r="D357" s="26"/>
@@ -14594,7 +14617,7 @@
         <v>17</v>
       </c>
       <c r="B358" s="73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C358" s="73"/>
       <c r="D358" s="0"/>
@@ -14610,7 +14633,7 @@
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="57"/>
       <c r="B360" s="73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C360" s="73"/>
       <c r="D360" s="0"/>
@@ -14628,7 +14651,7 @@
         <v>1.7</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C363" s="23"/>
       <c r="D363" s="23"/>
@@ -14636,7 +14659,7 @@
     <row r="364" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0"/>
       <c r="B364" s="70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C364" s="0"/>
       <c r="D364" s="0"/>
@@ -14649,20 +14672,20 @@
     </row>
     <row r="366" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B366" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C366" s="26"/>
       <c r="D366" s="26"/>
     </row>
     <row r="367" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B367" s="73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C367" s="73"/>
       <c r="D367" s="0"/>
@@ -14681,20 +14704,20 @@
     </row>
     <row r="370" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B370" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C370" s="26"/>
       <c r="D370" s="26"/>
     </row>
     <row r="371" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B371" s="73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C371" s="73"/>
       <c r="D371" s="0"/>
@@ -14711,7 +14734,7 @@
         <v>1.8</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C374" s="23"/>
       <c r="D374" s="23"/>
@@ -14719,7 +14742,7 @@
     <row r="375" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="0"/>
       <c r="B375" s="70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C375" s="0"/>
       <c r="D375" s="24"/>
@@ -14733,7 +14756,7 @@
     <row r="377" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="57"/>
       <c r="B377" s="58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C377" s="58"/>
       <c r="D377" s="58"/>
@@ -14746,20 +14769,20 @@
     </row>
     <row r="379" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B379" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
     </row>
     <row r="380" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B380" s="58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C380" s="58"/>
       <c r="D380" s="58"/>
@@ -14779,7 +14802,7 @@
     <row r="383" customFormat="false" ht="33.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="63"/>
       <c r="B383" s="64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C383" s="64"/>
       <c r="D383" s="64"/>
@@ -14792,10 +14815,10 @@
     </row>
     <row r="385" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B385" s="68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C385" s="68"/>
       <c r="D385" s="68"/>
@@ -14803,7 +14826,7 @@
     <row r="386" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="57"/>
       <c r="B386" s="56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C386" s="56"/>
       <c r="D386" s="56"/>
@@ -14817,24 +14840,24 @@
     <row r="388" customFormat="false" ht="97.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="57"/>
       <c r="B388" s="64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C388" s="64"/>
       <c r="D388" s="64"/>
     </row>
     <row r="389" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B389" s="26" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
     </row>
     <row r="390" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B390" s="34"/>
       <c r="C390" s="34"/>
@@ -14851,7 +14874,7 @@
         <v>1.9</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C392" s="23"/>
       <c r="D392" s="23"/>
@@ -14859,7 +14882,7 @@
     <row r="393" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="0"/>
       <c r="B393" s="56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C393" s="56"/>
       <c r="D393" s="56"/>
@@ -14873,7 +14896,7 @@
     <row r="395" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="57"/>
       <c r="B395" s="58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C395" s="58"/>
       <c r="D395" s="58"/>
@@ -14886,20 +14909,20 @@
     </row>
     <row r="397" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B397" s="26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C397" s="26"/>
       <c r="D397" s="26"/>
     </row>
     <row r="398" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B398" s="58" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C398" s="58"/>
       <c r="D398" s="58"/>
@@ -14919,7 +14942,7 @@
     <row r="401" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="63"/>
       <c r="B401" s="64" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C401" s="64"/>
       <c r="D401" s="64"/>
@@ -14932,10 +14955,10 @@
     </row>
     <row r="403" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="67" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B403" s="68" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C403" s="68"/>
       <c r="D403" s="68"/>
@@ -14943,7 +14966,7 @@
     <row r="404" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="57"/>
       <c r="B404" s="56" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C404" s="56"/>
       <c r="D404" s="56"/>
@@ -14957,7 +14980,7 @@
     <row r="406" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="57"/>
       <c r="B406" s="64" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C406" s="64"/>
       <c r="D406" s="64"/>
@@ -14970,17 +14993,17 @@
     </row>
     <row r="408" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B408" s="26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C408" s="26"/>
       <c r="D408" s="26"/>
     </row>
     <row r="409" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B409" s="34"/>
       <c r="C409" s="34"/>

--- a/lib/machines/templates/machines.xlsx
+++ b/lib/machines/templates/machines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="297">
   <si>
     <t xml:space="preserve">ES-DOC CMIP6 Institute Machines</t>
   </si>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">NOTE 2: String must correspond to the name of another documented machine, i.e. a machine detailed in another tab. If the machine is not a partition, leave this field empty.</t>
   </si>
   <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
     <t xml:space="preserve">General properties</t>
   </si>
   <si>
@@ -766,9 +763,6 @@
     <t xml:space="preserve">HadGEM3-GC31-HH</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.8.2.2</t>
   </si>
   <si>
@@ -779,9 +773,6 @@
   </si>
   <si>
     <t xml:space="preserve">HadGEM3-GC31-LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
   </si>
   <si>
     <t xml:space="preserve">1.8.2.4</t>
@@ -1679,7 +1670,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1795,8 +1786,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E398" activeCellId="0" sqref="E398"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F428" activeCellId="0" sqref="F428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2172,9 +2163,7 @@
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
-      <c r="B18" s="29" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="19"/>
@@ -2215,7 +2204,7 @@
         <v>1.2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -2236,7 +2225,7 @@
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="24"/>
@@ -2275,10 +2264,10 @@
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -2301,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="19"/>
@@ -2341,7 +2330,7 @@
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27"/>
       <c r="B26" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
@@ -2362,7 +2351,7 @@
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="33"/>
       <c r="B27" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -2401,10 +2390,10 @@
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -2427,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="19"/>
@@ -2448,7 +2437,7 @@
     <row r="31" customFormat="false" ht="148.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="19"/>
       <c r="B31" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -2487,10 +2476,10 @@
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -2513,7 +2502,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="19"/>
@@ -2553,7 +2542,7 @@
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="36"/>
       <c r="B36" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="19"/>
@@ -2574,7 +2563,7 @@
     <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19"/>
       <c r="B37" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -2613,10 +2602,10 @@
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -2639,7 +2628,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="19"/>
@@ -2679,7 +2668,7 @@
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="36"/>
       <c r="B42" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="19"/>
@@ -2699,10 +2688,10 @@
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -2741,10 +2730,10 @@
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>48</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>49</v>
       </c>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -2783,10 +2772,10 @@
     </row>
     <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>51</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -2809,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="19"/>
@@ -2830,7 +2819,7 @@
     <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="19"/>
       <c r="B49" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -2872,7 +2861,7 @@
         <v>1.3</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -2893,7 +2882,7 @@
     <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19"/>
       <c r="B52" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="24"/>
@@ -2932,10 +2921,10 @@
     </row>
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -2958,7 +2947,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="19"/>
@@ -2998,7 +2987,7 @@
     <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="27"/>
       <c r="B57" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
@@ -3019,7 +3008,7 @@
     <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19"/>
       <c r="B58" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -3058,10 +3047,10 @@
     </row>
     <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>60</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -3084,7 +3073,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="19"/>
@@ -3105,7 +3094,7 @@
     <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19"/>
       <c r="B62" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -3147,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -3168,7 +3157,7 @@
     <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="24"/>
@@ -3208,7 +3197,7 @@
     <row r="67" customFormat="false" ht="65.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19"/>
       <c r="B67" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
@@ -3247,10 +3236,10 @@
     </row>
     <row r="69" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="41" t="s">
         <v>66</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>67</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
@@ -3271,7 +3260,7 @@
     <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="31"/>
       <c r="B70" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="19"/>
@@ -3310,7 +3299,7 @@
     </row>
     <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>16</v>
@@ -3336,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="28"/>
       <c r="D73" s="19"/>
@@ -3394,10 +3383,10 @@
     </row>
     <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -3420,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="19"/>
@@ -3440,10 +3429,10 @@
     </row>
     <row r="78" customFormat="false" ht="221.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="34" t="s">
         <v>73</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>74</v>
       </c>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
@@ -3482,10 +3471,10 @@
     </row>
     <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -3508,7 +3497,7 @@
         <v>17</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="28"/>
       <c r="D81" s="19"/>
@@ -3548,7 +3537,7 @@
     <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="27"/>
       <c r="B83" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
@@ -3569,7 +3558,7 @@
     <row r="84" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19"/>
       <c r="B84" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
@@ -3608,10 +3597,10 @@
     </row>
     <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -3634,7 +3623,7 @@
         <v>17</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="28"/>
       <c r="D87" s="19"/>
@@ -3655,7 +3644,7 @@
     <row r="88" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19"/>
       <c r="B88" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
@@ -3694,10 +3683,10 @@
     </row>
     <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -3717,10 +3706,10 @@
     </row>
     <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="28"/>
       <c r="D91" s="19"/>
@@ -3780,10 +3769,10 @@
     </row>
     <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -3803,10 +3792,10 @@
     </row>
     <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" s="28"/>
       <c r="D95" s="19"/>
@@ -3866,10 +3855,10 @@
     </row>
     <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -3889,10 +3878,10 @@
     </row>
     <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="28"/>
       <c r="D99" s="19"/>
@@ -3952,10 +3941,10 @@
     </row>
     <row r="102" customFormat="false" ht="45.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="43" t="s">
         <v>90</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>91</v>
       </c>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -3976,7 +3965,7 @@
     <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="44"/>
       <c r="B103" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="46"/>
       <c r="D103" s="47"/>
@@ -4016,7 +4005,7 @@
     <row r="105" customFormat="false" ht="58.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="47"/>
       <c r="B105" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="48"/>
       <c r="D105" s="48"/>
@@ -4036,10 +4025,10 @@
     </row>
     <row r="106" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="B106" s="50" t="s">
-        <v>95</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
@@ -4059,7 +4048,7 @@
     </row>
     <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>16</v>
@@ -4085,7 +4074,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="46"/>
       <c r="D108" s="47"/>
@@ -4106,7 +4095,7 @@
     <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="47"/>
       <c r="B109" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
@@ -4145,10 +4134,10 @@
     </row>
     <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -4168,10 +4157,10 @@
     </row>
     <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B112" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="47"/>
@@ -4191,7 +4180,7 @@
     </row>
     <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" s="34" t="n">
         <v>19013</v>
@@ -4233,10 +4222,10 @@
     </row>
     <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
@@ -4259,7 +4248,7 @@
         <v>17</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="47"/>
@@ -4299,7 +4288,7 @@
     <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="51"/>
       <c r="B118" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="46"/>
@@ -4320,7 +4309,7 @@
     <row r="119" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="51"/>
       <c r="B119" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
@@ -4359,10 +4348,10 @@
     </row>
     <row r="121" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="50" t="s">
         <v>106</v>
-      </c>
-      <c r="B121" s="50" t="s">
-        <v>107</v>
       </c>
       <c r="C121" s="50"/>
       <c r="D121" s="50"/>
@@ -4382,7 +4371,7 @@
     </row>
     <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>16</v>
@@ -4408,7 +4397,7 @@
         <v>17</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="47"/>
@@ -4466,10 +4455,10 @@
     </row>
     <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
@@ -4489,10 +4478,10 @@
     </row>
     <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B127" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C127" s="46"/>
       <c r="D127" s="47"/>
@@ -4512,7 +4501,7 @@
     </row>
     <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -4552,10 +4541,10 @@
     </row>
     <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
@@ -4578,7 +4567,7 @@
         <v>17</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="47"/>
@@ -4618,7 +4607,7 @@
     <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="51"/>
       <c r="B133" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="47"/>
@@ -4676,10 +4665,10 @@
     </row>
     <row r="136" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="50" t="s">
         <v>111</v>
-      </c>
-      <c r="B136" s="50" t="s">
-        <v>112</v>
       </c>
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
@@ -4699,7 +4688,7 @@
     </row>
     <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B137" s="26" t="s">
         <v>16</v>
@@ -4725,7 +4714,7 @@
         <v>17</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="47"/>
@@ -4783,10 +4772,10 @@
     </row>
     <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
@@ -4806,10 +4795,10 @@
     </row>
     <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B142" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B142" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C142" s="46"/>
       <c r="D142" s="47"/>
@@ -4829,7 +4818,7 @@
     </row>
     <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -4869,10 +4858,10 @@
     </row>
     <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -4895,7 +4884,7 @@
         <v>17</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C146" s="46"/>
       <c r="D146" s="47"/>
@@ -4935,7 +4924,7 @@
     <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="51"/>
       <c r="B148" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C148" s="46"/>
       <c r="D148" s="47"/>
@@ -5012,10 +5001,10 @@
     </row>
     <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>117</v>
       </c>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
@@ -5035,10 +5024,10 @@
     </row>
     <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C153" s="28"/>
       <c r="D153" s="19"/>
@@ -5059,7 +5048,7 @@
     <row r="154" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="19"/>
       <c r="B154" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
@@ -5098,10 +5087,10 @@
     </row>
     <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>121</v>
       </c>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
@@ -5124,7 +5113,7 @@
         <v>17</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C157" s="28"/>
       <c r="D157" s="19"/>
@@ -5145,7 +5134,7 @@
     <row r="158" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="19"/>
       <c r="B158" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
@@ -5184,10 +5173,10 @@
     </row>
     <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="B160" s="26" t="s">
-        <v>124</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -5210,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" s="28"/>
       <c r="D161" s="19"/>
@@ -5231,7 +5220,7 @@
     <row r="162" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="19"/>
       <c r="B162" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C162" s="54"/>
       <c r="D162" s="54"/>
@@ -5270,10 +5259,10 @@
     </row>
     <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="B164" s="26" t="s">
-        <v>127</v>
       </c>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -5293,10 +5282,10 @@
     </row>
     <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B165" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="B165" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="C165" s="28"/>
       <c r="D165" s="19"/>
@@ -5356,10 +5345,10 @@
     </row>
     <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B168" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="B168" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
@@ -5379,10 +5368,10 @@
     </row>
     <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="28"/>
       <c r="D169" s="19"/>
@@ -5442,10 +5431,10 @@
     </row>
     <row r="172" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="B172" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="C172" s="41"/>
       <c r="D172" s="41"/>
@@ -5466,7 +5455,7 @@
     <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="31"/>
       <c r="B173" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C173" s="28"/>
       <c r="D173" s="19"/>
@@ -5505,7 +5494,7 @@
     </row>
     <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B175" s="26" t="s">
         <v>16</v>
@@ -5531,7 +5520,7 @@
         <v>17</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C176" s="28"/>
       <c r="D176" s="19"/>
@@ -5589,10 +5578,10 @@
     </row>
     <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
@@ -5615,7 +5604,7 @@
         <v>17</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C180" s="28"/>
       <c r="D180" s="19"/>
@@ -5673,10 +5662,10 @@
     </row>
     <row r="183" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
@@ -5699,7 +5688,7 @@
         <v>17</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C184" s="28"/>
       <c r="D184" s="19"/>
@@ -5739,7 +5728,7 @@
     <row r="186" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="27"/>
       <c r="B186" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C186" s="32"/>
       <c r="D186" s="32"/>
@@ -5797,10 +5786,10 @@
     </row>
     <row r="189" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
@@ -5823,7 +5812,7 @@
         <v>17</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C190" s="28"/>
       <c r="D190" s="19"/>
@@ -5881,10 +5870,10 @@
     </row>
     <row r="193" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
@@ -5904,10 +5893,10 @@
     </row>
     <row r="194" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C194" s="28"/>
       <c r="D194" s="19"/>
@@ -5965,10 +5954,10 @@
     </row>
     <row r="197" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
@@ -5988,10 +5977,10 @@
     </row>
     <row r="198" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C198" s="28"/>
       <c r="D198" s="19"/>
@@ -6049,10 +6038,10 @@
     </row>
     <row r="201" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
@@ -6072,10 +6061,10 @@
     </row>
     <row r="202" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C202" s="28"/>
       <c r="D202" s="19"/>
@@ -6133,10 +6122,10 @@
     </row>
     <row r="205" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C205" s="43"/>
       <c r="D205" s="43"/>
@@ -6157,7 +6146,7 @@
     <row r="206" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="44"/>
       <c r="B206" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C206" s="46"/>
       <c r="D206" s="47"/>
@@ -6197,7 +6186,7 @@
     <row r="208" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="47"/>
       <c r="B208" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C208" s="48"/>
       <c r="D208" s="48"/>
@@ -6217,10 +6206,10 @@
     </row>
     <row r="209" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B209" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C209" s="50"/>
       <c r="D209" s="50"/>
@@ -6240,7 +6229,7 @@
     </row>
     <row r="210" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B210" s="26" t="s">
         <v>16</v>
@@ -6266,7 +6255,7 @@
         <v>17</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C211" s="46"/>
       <c r="D211" s="47"/>
@@ -6324,10 +6313,10 @@
     </row>
     <row r="214" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C214" s="26"/>
       <c r="D214" s="26"/>
@@ -6347,10 +6336,10 @@
     </row>
     <row r="215" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B215" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B215" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C215" s="46"/>
       <c r="D215" s="47"/>
@@ -6370,7 +6359,7 @@
     </row>
     <row r="216" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -6410,10 +6399,10 @@
     </row>
     <row r="218" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C218" s="26"/>
       <c r="D218" s="26"/>
@@ -6436,7 +6425,7 @@
         <v>17</v>
       </c>
       <c r="B219" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C219" s="46"/>
       <c r="D219" s="47"/>
@@ -6476,7 +6465,7 @@
     <row r="221" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="51"/>
       <c r="B221" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C221" s="46"/>
       <c r="D221" s="47"/>
@@ -6534,10 +6523,10 @@
     </row>
     <row r="224" customFormat="false" ht="43.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B224" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C224" s="50"/>
       <c r="D224" s="50"/>
@@ -6557,7 +6546,7 @@
     </row>
     <row r="225" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>16</v>
@@ -6583,7 +6572,7 @@
         <v>17</v>
       </c>
       <c r="B226" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C226" s="46"/>
       <c r="D226" s="47"/>
@@ -6641,10 +6630,10 @@
     </row>
     <row r="229" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C229" s="26"/>
       <c r="D229" s="26"/>
@@ -6664,10 +6653,10 @@
     </row>
     <row r="230" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B230" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B230" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C230" s="46"/>
       <c r="D230" s="47"/>
@@ -6687,7 +6676,7 @@
     </row>
     <row r="231" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -6727,10 +6716,10 @@
     </row>
     <row r="233" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C233" s="26"/>
       <c r="D233" s="26"/>
@@ -6753,7 +6742,7 @@
         <v>17</v>
       </c>
       <c r="B234" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C234" s="46"/>
       <c r="D234" s="47"/>
@@ -6793,7 +6782,7 @@
     <row r="236" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="51"/>
       <c r="B236" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C236" s="46"/>
       <c r="D236" s="47"/>
@@ -6851,10 +6840,10 @@
     </row>
     <row r="239" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B239" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C239" s="50"/>
       <c r="D239" s="50"/>
@@ -6874,7 +6863,7 @@
     </row>
     <row r="240" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B240" s="26" t="s">
         <v>16</v>
@@ -6900,7 +6889,7 @@
         <v>17</v>
       </c>
       <c r="B241" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C241" s="46"/>
       <c r="D241" s="47"/>
@@ -6958,10 +6947,10 @@
     </row>
     <row r="244" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C244" s="26"/>
       <c r="D244" s="26"/>
@@ -6981,10 +6970,10 @@
     </row>
     <row r="245" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B245" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B245" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C245" s="46"/>
       <c r="D245" s="47"/>
@@ -7004,7 +6993,7 @@
     </row>
     <row r="246" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -7044,10 +7033,10 @@
     </row>
     <row r="248" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C248" s="26"/>
       <c r="D248" s="26"/>
@@ -7070,7 +7059,7 @@
         <v>17</v>
       </c>
       <c r="B249" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C249" s="46"/>
       <c r="D249" s="47"/>
@@ -7110,7 +7099,7 @@
     <row r="251" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="51"/>
       <c r="B251" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C251" s="46"/>
       <c r="D251" s="47"/>
@@ -7187,10 +7176,10 @@
     </row>
     <row r="255" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C255" s="26"/>
       <c r="D255" s="26"/>
@@ -7210,10 +7199,10 @@
     </row>
     <row r="256" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C256" s="28"/>
       <c r="D256" s="19"/>
@@ -7271,10 +7260,10 @@
     </row>
     <row r="259" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C259" s="26"/>
       <c r="D259" s="26"/>
@@ -7297,7 +7286,7 @@
         <v>17</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C260" s="28"/>
       <c r="D260" s="19"/>
@@ -7355,10 +7344,10 @@
     </row>
     <row r="263" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C263" s="26"/>
       <c r="D263" s="26"/>
@@ -7381,7 +7370,7 @@
         <v>17</v>
       </c>
       <c r="B264" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C264" s="28"/>
       <c r="D264" s="19"/>
@@ -7439,10 +7428,10 @@
     </row>
     <row r="267" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C267" s="26"/>
       <c r="D267" s="26"/>
@@ -7462,10 +7451,10 @@
     </row>
     <row r="268" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B268" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="B268" s="28" t="s">
-        <v>129</v>
       </c>
       <c r="C268" s="28"/>
       <c r="D268" s="19"/>
@@ -7523,10 +7512,10 @@
     </row>
     <row r="271" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C271" s="26"/>
       <c r="D271" s="26"/>
@@ -7546,10 +7535,10 @@
     </row>
     <row r="272" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C272" s="28"/>
       <c r="D272" s="19"/>
@@ -7610,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -7631,7 +7620,7 @@
     <row r="276" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="19"/>
       <c r="B276" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C276" s="19"/>
       <c r="D276" s="24"/>
@@ -7671,7 +7660,7 @@
     <row r="278" customFormat="false" ht="98.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="19"/>
       <c r="B278" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C278" s="39"/>
       <c r="D278" s="39"/>
@@ -7710,10 +7699,10 @@
     </row>
     <row r="280" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B280" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="B280" s="41" t="s">
-        <v>166</v>
       </c>
       <c r="C280" s="41"/>
       <c r="D280" s="41"/>
@@ -7734,7 +7723,7 @@
     <row r="281" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="31"/>
       <c r="B281" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C281" s="28"/>
       <c r="D281" s="19"/>
@@ -7773,7 +7762,7 @@
     </row>
     <row r="283" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B283" s="26" t="s">
         <v>16</v>
@@ -7799,7 +7788,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C284" s="28"/>
       <c r="D284" s="19"/>
@@ -7820,7 +7809,7 @@
     <row r="285" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="19"/>
       <c r="B285" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C285" s="34"/>
       <c r="D285" s="34"/>
@@ -7859,10 +7848,10 @@
     </row>
     <row r="287" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B287" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="B287" s="26" t="s">
-        <v>172</v>
       </c>
       <c r="C287" s="26"/>
       <c r="D287" s="26"/>
@@ -7882,10 +7871,10 @@
     </row>
     <row r="288" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B288" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="B288" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="C288" s="28"/>
       <c r="D288" s="19"/>
@@ -7925,7 +7914,7 @@
     <row r="290" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="36"/>
       <c r="B290" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C290" s="28"/>
       <c r="D290" s="19"/>
@@ -8027,10 +8016,10 @@
     </row>
     <row r="295" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C295" s="26"/>
       <c r="D295" s="26"/>
@@ -8053,7 +8042,7 @@
         <v>17</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C296" s="28"/>
       <c r="D296" s="19"/>
@@ -8074,7 +8063,7 @@
     <row r="297" customFormat="false" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="19"/>
       <c r="B297" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C297" s="34"/>
       <c r="D297" s="34"/>
@@ -8113,10 +8102,10 @@
     </row>
     <row r="299" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B299" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="B299" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="C299" s="26"/>
       <c r="D299" s="26"/>
@@ -8136,10 +8125,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B300" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="B300" s="28" t="s">
-        <v>181</v>
       </c>
       <c r="C300" s="28"/>
       <c r="D300" s="19"/>
@@ -8179,7 +8168,7 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="31"/>
       <c r="B302" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C302" s="28"/>
       <c r="D302" s="19"/>
@@ -8200,7 +8189,7 @@
     <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="31"/>
       <c r="B303" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C303" s="34"/>
       <c r="D303" s="34"/>
@@ -8239,10 +8228,10 @@
     </row>
     <row r="305" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C305" s="26"/>
       <c r="D305" s="26"/>
@@ -8265,7 +8254,7 @@
         <v>17</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C306" s="28"/>
       <c r="D306" s="19"/>
@@ -8305,7 +8294,7 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="27"/>
       <c r="B308" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C308" s="28"/>
       <c r="D308" s="19"/>
@@ -8363,10 +8352,10 @@
     </row>
     <row r="311" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B311" s="41" t="s">
         <v>186</v>
-      </c>
-      <c r="B311" s="41" t="s">
-        <v>187</v>
       </c>
       <c r="C311" s="41"/>
       <c r="D311" s="41"/>
@@ -8387,7 +8376,7 @@
     <row r="312" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="31"/>
       <c r="B312" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C312" s="28"/>
       <c r="D312" s="19"/>
@@ -8427,7 +8416,7 @@
     <row r="314" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="27"/>
       <c r="B314" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C314" s="55"/>
       <c r="D314" s="55"/>
@@ -8466,7 +8455,7 @@
     </row>
     <row r="316" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B316" s="26" t="s">
         <v>16</v>
@@ -8492,7 +8481,7 @@
         <v>17</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C317" s="28"/>
       <c r="D317" s="19"/>
@@ -8513,7 +8502,7 @@
     <row r="318" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="19"/>
       <c r="B318" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C318" s="34"/>
       <c r="D318" s="34"/>
@@ -8552,10 +8541,10 @@
     </row>
     <row r="320" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C320" s="26"/>
       <c r="D320" s="26"/>
@@ -8575,10 +8564,10 @@
     </row>
     <row r="321" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B321" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="B321" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="C321" s="28"/>
       <c r="D321" s="19"/>
@@ -8618,7 +8607,7 @@
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="36"/>
       <c r="B323" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C323" s="28"/>
       <c r="D323" s="19"/>
@@ -8678,10 +8667,10 @@
     </row>
     <row r="326" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C326" s="26"/>
       <c r="D326" s="26"/>
@@ -8704,7 +8693,7 @@
         <v>17</v>
       </c>
       <c r="B327" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C327" s="28"/>
       <c r="D327" s="19"/>
@@ -8725,7 +8714,7 @@
     <row r="328" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="19"/>
       <c r="B328" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C328" s="34"/>
       <c r="D328" s="34"/>
@@ -8764,10 +8753,10 @@
     </row>
     <row r="330" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C330" s="26"/>
       <c r="D330" s="26"/>
@@ -8787,10 +8776,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B331" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="B331" s="28" t="s">
-        <v>181</v>
       </c>
       <c r="C331" s="28"/>
       <c r="D331" s="19"/>
@@ -8830,7 +8819,7 @@
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="31"/>
       <c r="B333" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C333" s="28"/>
       <c r="D333" s="19"/>
@@ -8851,7 +8840,7 @@
     <row r="334" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="31"/>
       <c r="B334" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C334" s="34"/>
       <c r="D334" s="34"/>
@@ -8890,10 +8879,10 @@
     </row>
     <row r="336" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C336" s="26"/>
       <c r="D336" s="26"/>
@@ -8916,7 +8905,7 @@
         <v>17</v>
       </c>
       <c r="B337" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C337" s="28"/>
       <c r="D337" s="19"/>
@@ -8956,7 +8945,7 @@
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="27"/>
       <c r="B339" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C339" s="28"/>
       <c r="D339" s="19"/>
@@ -9017,7 +9006,7 @@
         <v>1.6</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -9038,7 +9027,7 @@
     <row r="343" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="19"/>
       <c r="B343" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C343" s="19"/>
       <c r="D343" s="19"/>
@@ -9077,7 +9066,7 @@
     </row>
     <row r="345" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B345" s="26" t="s">
         <v>16</v>
@@ -9103,7 +9092,7 @@
         <v>17</v>
       </c>
       <c r="B346" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C346" s="28"/>
       <c r="D346" s="19"/>
@@ -9124,7 +9113,7 @@
     <row r="347" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="19"/>
       <c r="B347" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C347" s="29"/>
       <c r="D347" s="29"/>
@@ -9163,10 +9152,10 @@
     </row>
     <row r="349" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B349" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="B349" s="26" t="s">
-        <v>204</v>
       </c>
       <c r="C349" s="26"/>
       <c r="D349" s="26"/>
@@ -9189,7 +9178,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C350" s="28"/>
       <c r="D350" s="19"/>
@@ -9210,7 +9199,7 @@
     <row r="351" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="19"/>
       <c r="B351" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C351" s="34"/>
       <c r="D351" s="34"/>
@@ -9249,10 +9238,10 @@
     </row>
     <row r="353" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C353" s="26"/>
       <c r="D353" s="26"/>
@@ -9275,7 +9264,7 @@
         <v>17</v>
       </c>
       <c r="B354" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C354" s="28"/>
       <c r="D354" s="19"/>
@@ -9296,7 +9285,7 @@
     <row r="355" customFormat="false" ht="151.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="19"/>
       <c r="B355" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C355" s="34"/>
       <c r="D355" s="34"/>
@@ -9335,10 +9324,10 @@
     </row>
     <row r="357" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C357" s="26"/>
       <c r="D357" s="26"/>
@@ -9361,7 +9350,7 @@
         <v>17</v>
       </c>
       <c r="B358" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C358" s="28"/>
       <c r="D358" s="19"/>
@@ -9401,7 +9390,7 @@
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="27"/>
       <c r="B360" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C360" s="28"/>
       <c r="D360" s="19"/>
@@ -9422,7 +9411,7 @@
     <row r="361" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="19"/>
       <c r="B361" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C361" s="34"/>
       <c r="D361" s="34"/>
@@ -9463,7 +9452,7 @@
         <v>1.7</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C363" s="23"/>
       <c r="D363" s="23"/>
@@ -9484,7 +9473,7 @@
     <row r="364" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="19"/>
       <c r="B364" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C364" s="19"/>
       <c r="D364" s="19"/>
@@ -9523,10 +9512,10 @@
     </row>
     <row r="366" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B366" s="26" t="s">
         <v>214</v>
-      </c>
-      <c r="B366" s="26" t="s">
-        <v>215</v>
       </c>
       <c r="C366" s="26"/>
       <c r="D366" s="26"/>
@@ -9546,10 +9535,10 @@
     </row>
     <row r="367" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B367" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="B367" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="C367" s="28"/>
       <c r="D367" s="19"/>
@@ -9609,10 +9598,10 @@
     </row>
     <row r="370" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B370" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="B370" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="C370" s="26"/>
       <c r="D370" s="26"/>
@@ -9632,10 +9621,10 @@
     </row>
     <row r="371" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B371" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C371" s="28"/>
       <c r="D371" s="19"/>
@@ -9697,14 +9686,14 @@
         <v>1.8</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C374" s="23"/>
       <c r="D374" s="23"/>
     </row>
     <row r="375" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B375" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C375" s="56"/>
       <c r="D375" s="56"/>
@@ -9717,7 +9706,7 @@
     <row r="377" s="15" customFormat="true" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="57"/>
       <c r="B377" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C377" s="58"/>
       <c r="D377" s="58"/>
@@ -9729,20 +9718,20 @@
     </row>
     <row r="379" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B379" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="B379" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
     </row>
     <row r="380" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B380" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C380" s="58"/>
       <c r="D380" s="58"/>
@@ -9750,7 +9739,7 @@
     <row r="381" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="60"/>
       <c r="B381" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C381" s="34"/>
       <c r="D381" s="34"/>
@@ -9764,7 +9753,7 @@
     <row r="383" s="15" customFormat="true" ht="33.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="63"/>
       <c r="B383" s="64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C383" s="64"/>
       <c r="D383" s="64"/>
@@ -9777,10 +9766,10 @@
     </row>
     <row r="385" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="B385" s="68" t="s">
         <v>229</v>
-      </c>
-      <c r="B385" s="68" t="s">
-        <v>230</v>
       </c>
       <c r="C385" s="68"/>
       <c r="D385" s="68"/>
@@ -9788,7 +9777,7 @@
     <row r="386" s="15" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="57"/>
       <c r="B386" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C386" s="56"/>
       <c r="D386" s="56"/>
@@ -9802,28 +9791,26 @@
     <row r="388" s="15" customFormat="true" ht="97.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="57"/>
       <c r="B388" s="64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C388" s="64"/>
       <c r="D388" s="64"/>
     </row>
     <row r="389" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B389" s="26" t="s">
         <v>232</v>
-      </c>
-      <c r="B389" s="26" t="s">
-        <v>233</v>
       </c>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
     </row>
     <row r="390" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B390" s="34" t="s">
-        <v>234</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B390" s="34"/>
       <c r="C390" s="34"/>
       <c r="D390" s="34"/>
     </row>
@@ -9835,21 +9822,19 @@
     </row>
     <row r="392" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B392" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C392" s="26"/>
       <c r="D392" s="26"/>
     </row>
     <row r="393" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B393" s="34" t="s">
-        <v>234</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B393" s="34"/>
       <c r="C393" s="34"/>
       <c r="D393" s="34"/>
     </row>
@@ -9861,21 +9846,19 @@
     </row>
     <row r="395" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B395" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
     </row>
     <row r="396" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B396" s="34" t="s">
-        <v>239</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B396" s="34"/>
       <c r="C396" s="34"/>
       <c r="D396" s="34"/>
     </row>
@@ -9887,21 +9870,19 @@
     </row>
     <row r="398" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B398" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C398" s="26"/>
       <c r="D398" s="26"/>
     </row>
     <row r="399" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B399" s="34" t="s">
-        <v>239</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B399" s="34"/>
       <c r="C399" s="34"/>
       <c r="D399" s="34"/>
     </row>
@@ -9913,21 +9894,19 @@
     </row>
     <row r="401" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B401" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C401" s="26"/>
       <c r="D401" s="26"/>
     </row>
     <row r="402" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B402" s="34" t="s">
-        <v>234</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B402" s="34"/>
       <c r="C402" s="34"/>
       <c r="D402" s="34"/>
     </row>
@@ -9939,21 +9918,19 @@
     </row>
     <row r="404" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B404" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C404" s="26"/>
       <c r="D404" s="26"/>
     </row>
     <row r="405" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B405" s="34" t="s">
-        <v>234</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B405" s="34"/>
       <c r="C405" s="34"/>
       <c r="D405" s="34"/>
     </row>
@@ -9968,14 +9945,14 @@
         <v>1.9</v>
       </c>
       <c r="B407" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C407" s="23"/>
       <c r="D407" s="23"/>
     </row>
     <row r="408" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B408" s="56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C408" s="56"/>
       <c r="D408" s="56"/>
@@ -9988,7 +9965,7 @@
     <row r="410" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="57"/>
       <c r="B410" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C410" s="58"/>
       <c r="D410" s="58"/>
@@ -10000,20 +9977,20 @@
     </row>
     <row r="412" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B412" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C412" s="26"/>
       <c r="D412" s="26"/>
     </row>
     <row r="413" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B413" s="58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C413" s="58"/>
       <c r="D413" s="58"/>
@@ -10021,7 +9998,7 @@
     <row r="414" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="60"/>
       <c r="B414" s="34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C414" s="34"/>
       <c r="D414" s="34"/>
@@ -10035,7 +10012,7 @@
     <row r="416" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="63"/>
       <c r="B416" s="64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C416" s="64"/>
       <c r="D416" s="64"/>
@@ -10048,10 +10025,10 @@
     </row>
     <row r="418" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B418" s="68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C418" s="68"/>
       <c r="D418" s="68"/>
@@ -10059,7 +10036,7 @@
     <row r="419" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="57"/>
       <c r="B419" s="56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C419" s="56"/>
       <c r="D419" s="56"/>
@@ -10073,7 +10050,7 @@
     <row r="421" s="15" customFormat="true" ht="220" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="57"/>
       <c r="B421" s="64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C421" s="64"/>
       <c r="D421" s="64"/>
@@ -10086,20 +10063,20 @@
     </row>
     <row r="423" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B423" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C423" s="26"/>
       <c r="D423" s="26"/>
     </row>
     <row r="424" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B424" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C424" s="34"/>
       <c r="D424" s="34"/>
@@ -10112,20 +10089,20 @@
     </row>
     <row r="426" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B426" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C426" s="26"/>
       <c r="D426" s="26"/>
     </row>
     <row r="427" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B427" s="34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C427" s="34"/>
       <c r="D427" s="34"/>
@@ -10133,19 +10110,19 @@
     <row r="428" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="63"/>
       <c r="B428" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="429" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="63"/>
       <c r="B429" s="34" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="430" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="63"/>
       <c r="B430" s="34" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="431" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10156,20 +10133,20 @@
     </row>
     <row r="432" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B432" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C432" s="26"/>
       <c r="D432" s="26"/>
     </row>
     <row r="433" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B433" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C433" s="34"/>
       <c r="D433" s="34"/>
@@ -10182,20 +10159,20 @@
     </row>
     <row r="435" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B435" s="26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C435" s="26"/>
       <c r="D435" s="26"/>
     </row>
     <row r="436" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B436" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C436" s="34"/>
       <c r="D436" s="34"/>
@@ -10208,20 +10185,20 @@
     </row>
     <row r="438" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B438" s="26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C438" s="26"/>
       <c r="D438" s="26"/>
     </row>
     <row r="439" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B439" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C439" s="34"/>
       <c r="D439" s="34"/>
@@ -10234,20 +10211,20 @@
     </row>
     <row r="441" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B441" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C441" s="26"/>
       <c r="D441" s="26"/>
     </row>
     <row r="442" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C442" s="34"/>
       <c r="D442" s="34"/>
@@ -10260,20 +10237,20 @@
     </row>
     <row r="444" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B444" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C444" s="26"/>
       <c r="D444" s="26"/>
     </row>
     <row r="445" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C445" s="34"/>
       <c r="D445" s="34"/>
@@ -10286,20 +10263,20 @@
     </row>
     <row r="447" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B447" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C447" s="26"/>
       <c r="D447" s="26"/>
     </row>
     <row r="448" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B448" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C448" s="34"/>
       <c r="D448" s="34"/>
@@ -10312,20 +10289,20 @@
     </row>
     <row r="450" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B450" s="26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C450" s="26"/>
       <c r="D450" s="26"/>
     </row>
     <row r="451" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B451" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C451" s="34"/>
       <c r="D451" s="34"/>
@@ -10338,20 +10315,20 @@
     </row>
     <row r="453" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B453" s="26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C453" s="26"/>
       <c r="D453" s="26"/>
     </row>
     <row r="454" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B454" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C454" s="34"/>
       <c r="D454" s="34"/>
@@ -10364,20 +10341,20 @@
     </row>
     <row r="456" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C456" s="26"/>
       <c r="D456" s="26"/>
     </row>
     <row r="457" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B457" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C457" s="34"/>
       <c r="D457" s="34"/>
@@ -10390,20 +10367,20 @@
     </row>
     <row r="459" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B459" s="26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C459" s="26"/>
       <c r="D459" s="26"/>
     </row>
     <row r="460" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B460" s="34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C460" s="34"/>
       <c r="D460" s="34"/>
@@ -10416,20 +10393,20 @@
     </row>
     <row r="462" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B462" s="26" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C462" s="26"/>
       <c r="D462" s="26"/>
     </row>
     <row r="463" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B463" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C463" s="34"/>
       <c r="D463" s="34"/>
@@ -10442,20 +10419,20 @@
     </row>
     <row r="465" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B465" s="26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C465" s="26"/>
       <c r="D465" s="26"/>
     </row>
     <row r="466" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B466" s="34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C466" s="34"/>
       <c r="D466" s="34"/>
@@ -10468,20 +10445,20 @@
     </row>
     <row r="468" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="25" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B468" s="26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C468" s="26"/>
       <c r="D468" s="26"/>
     </row>
     <row r="469" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B469" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C469" s="34"/>
       <c r="D469" s="34"/>
@@ -10494,20 +10471,20 @@
     </row>
     <row r="471" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B471" s="26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C471" s="26"/>
       <c r="D471" s="26"/>
     </row>
     <row r="472" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B472" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C472" s="34"/>
       <c r="D472" s="34"/>
@@ -10520,20 +10497,20 @@
     </row>
     <row r="474" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B474" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C474" s="26"/>
       <c r="D474" s="26"/>
     </row>
     <row r="475" s="15" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B475" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C475" s="34"/>
       <c r="D475" s="34"/>
@@ -11140,7 +11117,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -11326,7 +11303,7 @@
         <v>1.2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -11336,7 +11313,7 @@
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" s="24"/>
@@ -11353,10 +11330,10 @@
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -11368,7 +11345,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="0"/>
@@ -11386,7 +11363,7 @@
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="57"/>
       <c r="B26" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
@@ -11411,10 +11388,10 @@
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -11426,7 +11403,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="0"/>
@@ -11451,10 +11428,10 @@
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -11466,7 +11443,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="0"/>
@@ -11484,7 +11461,7 @@
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="74"/>
       <c r="B36" s="73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="0"/>
@@ -11509,10 +11486,10 @@
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -11524,7 +11501,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="0"/>
@@ -11542,7 +11519,7 @@
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="74"/>
       <c r="B42" s="73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="73"/>
       <c r="D42" s="0"/>
@@ -11551,7 +11528,7 @@
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -11569,7 +11546,7 @@
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -11587,10 +11564,10 @@
     </row>
     <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>51</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -11602,7 +11579,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="0"/>
@@ -11630,7 +11607,7 @@
         <v>1.3</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -11640,7 +11617,7 @@
     <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
       <c r="B52" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" s="24"/>
@@ -11657,10 +11634,10 @@
     </row>
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -11672,7 +11649,7 @@
         <v>17</v>
       </c>
       <c r="B55" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="0"/>
@@ -11690,7 +11667,7 @@
     <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="57"/>
       <c r="B57" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
@@ -11715,10 +11692,10 @@
     </row>
     <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>60</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -11730,7 +11707,7 @@
         <v>17</v>
       </c>
       <c r="B61" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="73"/>
       <c r="D61" s="0"/>
@@ -11758,7 +11735,7 @@
         <v>1.4</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -11768,7 +11745,7 @@
     <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
       <c r="B65" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="24"/>
@@ -11786,7 +11763,7 @@
     <row r="67" customFormat="false" ht="65.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
       <c r="B67" s="77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="77"/>
       <c r="D67" s="77"/>
@@ -11803,10 +11780,10 @@
     </row>
     <row r="69" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="41" t="s">
         <v>66</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>67</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
@@ -11816,7 +11793,7 @@
     <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="63"/>
       <c r="B70" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="73"/>
       <c r="D70" s="0"/>
@@ -11833,7 +11810,7 @@
     </row>
     <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>16</v>
@@ -11848,7 +11825,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="0"/>
@@ -11873,10 +11850,10 @@
     </row>
     <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -11888,7 +11865,7 @@
         <v>17</v>
       </c>
       <c r="B77" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="73"/>
       <c r="D77" s="0"/>
@@ -11913,10 +11890,10 @@
     </row>
     <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -11928,7 +11905,7 @@
         <v>17</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="73"/>
       <c r="D81" s="0"/>
@@ -11946,7 +11923,7 @@
     <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="57"/>
       <c r="B83" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="58"/>
       <c r="D83" s="58"/>
@@ -11971,10 +11948,10 @@
     </row>
     <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -11986,7 +11963,7 @@
         <v>17</v>
       </c>
       <c r="B87" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="0"/>
@@ -12011,10 +11988,10 @@
     </row>
     <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -12023,10 +12000,10 @@
     </row>
     <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="73"/>
       <c r="D91" s="0"/>
@@ -12051,10 +12028,10 @@
     </row>
     <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -12063,10 +12040,10 @@
     </row>
     <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" s="73"/>
       <c r="D95" s="0"/>
@@ -12091,10 +12068,10 @@
     </row>
     <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -12103,10 +12080,10 @@
     </row>
     <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="73"/>
       <c r="D99" s="0"/>
@@ -12131,10 +12108,10 @@
     </row>
     <row r="102" customFormat="false" ht="45.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="43" t="s">
         <v>90</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>91</v>
       </c>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -12144,7 +12121,7 @@
     <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="44"/>
       <c r="B103" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="46"/>
       <c r="D103" s="47"/>
@@ -12162,7 +12139,7 @@
     <row r="105" customFormat="false" ht="58.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="47"/>
       <c r="B105" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="48"/>
       <c r="D105" s="48"/>
@@ -12171,10 +12148,10 @@
     </row>
     <row r="106" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="B106" s="50" t="s">
-        <v>95</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
@@ -12183,7 +12160,7 @@
     </row>
     <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>16</v>
@@ -12198,7 +12175,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="46"/>
       <c r="D108" s="47"/>
@@ -12223,10 +12200,10 @@
     </row>
     <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
@@ -12235,10 +12212,10 @@
     </row>
     <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B112" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="47"/>
@@ -12247,7 +12224,7 @@
     </row>
     <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -12265,10 +12242,10 @@
     </row>
     <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
@@ -12280,7 +12257,7 @@
         <v>17</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="47"/>
@@ -12298,7 +12275,7 @@
     <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="51"/>
       <c r="B118" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="46"/>
@@ -12323,10 +12300,10 @@
     </row>
     <row r="121" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="50" t="s">
         <v>106</v>
-      </c>
-      <c r="B121" s="50" t="s">
-        <v>107</v>
       </c>
       <c r="C121" s="50"/>
       <c r="D121" s="50"/>
@@ -12335,7 +12312,7 @@
     </row>
     <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>16</v>
@@ -12350,7 +12327,7 @@
         <v>17</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="47"/>
@@ -12375,10 +12352,10 @@
     </row>
     <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
@@ -12387,10 +12364,10 @@
     </row>
     <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B127" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C127" s="46"/>
       <c r="D127" s="47"/>
@@ -12399,7 +12376,7 @@
     </row>
     <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -12417,10 +12394,10 @@
     </row>
     <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
@@ -12432,7 +12409,7 @@
         <v>17</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="47"/>
@@ -12450,7 +12427,7 @@
     <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="51"/>
       <c r="B133" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="47"/>
@@ -12475,10 +12452,10 @@
     </row>
     <row r="136" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="50" t="s">
         <v>111</v>
-      </c>
-      <c r="B136" s="50" t="s">
-        <v>112</v>
       </c>
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
@@ -12487,7 +12464,7 @@
     </row>
     <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B137" s="26" t="s">
         <v>16</v>
@@ -12502,7 +12479,7 @@
         <v>17</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="47"/>
@@ -12527,10 +12504,10 @@
     </row>
     <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
@@ -12539,10 +12516,10 @@
     </row>
     <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B142" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B142" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C142" s="46"/>
       <c r="D142" s="47"/>
@@ -12551,7 +12528,7 @@
     </row>
     <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -12569,10 +12546,10 @@
     </row>
     <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -12584,7 +12561,7 @@
         <v>17</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C146" s="46"/>
       <c r="D146" s="47"/>
@@ -12602,7 +12579,7 @@
     <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="51"/>
       <c r="B148" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C148" s="46"/>
       <c r="D148" s="47"/>
@@ -12635,10 +12612,10 @@
     </row>
     <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>117</v>
       </c>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
@@ -12647,10 +12624,10 @@
     </row>
     <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B153" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C153" s="73"/>
       <c r="D153" s="0"/>
@@ -12675,10 +12652,10 @@
     </row>
     <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>121</v>
       </c>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
@@ -12690,7 +12667,7 @@
         <v>17</v>
       </c>
       <c r="B157" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C157" s="73"/>
       <c r="D157" s="0"/>
@@ -12715,10 +12692,10 @@
     </row>
     <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="B160" s="26" t="s">
-        <v>124</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -12730,7 +12707,7 @@
         <v>17</v>
       </c>
       <c r="B161" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C161" s="73"/>
       <c r="D161" s="0"/>
@@ -12755,10 +12732,10 @@
     </row>
     <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="B164" s="26" t="s">
-        <v>127</v>
       </c>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -12767,10 +12744,10 @@
     </row>
     <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B165" s="73" t="s">
         <v>128</v>
-      </c>
-      <c r="B165" s="73" t="s">
-        <v>129</v>
       </c>
       <c r="C165" s="73"/>
       <c r="D165" s="0"/>
@@ -12795,10 +12772,10 @@
     </row>
     <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B168" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="B168" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
@@ -12807,10 +12784,10 @@
     </row>
     <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B169" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="73"/>
       <c r="D169" s="0"/>
@@ -12835,10 +12812,10 @@
     </row>
     <row r="172" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" s="41" t="s">
         <v>133</v>
-      </c>
-      <c r="B172" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="C172" s="41"/>
       <c r="D172" s="41"/>
@@ -12848,7 +12825,7 @@
     <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="63"/>
       <c r="B173" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C173" s="73"/>
       <c r="D173" s="0"/>
@@ -12865,7 +12842,7 @@
     </row>
     <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B175" s="26" t="s">
         <v>16</v>
@@ -12880,7 +12857,7 @@
         <v>17</v>
       </c>
       <c r="B176" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C176" s="73"/>
       <c r="D176" s="0"/>
@@ -12905,10 +12882,10 @@
     </row>
     <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
@@ -12920,7 +12897,7 @@
         <v>17</v>
       </c>
       <c r="B180" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C180" s="73"/>
       <c r="D180" s="0"/>
@@ -12945,10 +12922,10 @@
     </row>
     <row r="183" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
@@ -12960,7 +12937,7 @@
         <v>17</v>
       </c>
       <c r="B184" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C184" s="73"/>
       <c r="D184" s="0"/>
@@ -12978,7 +12955,7 @@
     <row r="186" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="57"/>
       <c r="B186" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C186" s="58"/>
       <c r="D186" s="58"/>
@@ -13003,10 +12980,10 @@
     </row>
     <row r="189" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
@@ -13018,7 +12995,7 @@
         <v>17</v>
       </c>
       <c r="B190" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C190" s="73"/>
       <c r="D190" s="0"/>
@@ -13043,10 +13020,10 @@
     </row>
     <row r="193" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
@@ -13055,10 +13032,10 @@
     </row>
     <row r="194" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B194" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C194" s="73"/>
       <c r="D194" s="0"/>
@@ -13083,10 +13060,10 @@
     </row>
     <row r="197" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
@@ -13095,10 +13072,10 @@
     </row>
     <row r="198" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B198" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C198" s="73"/>
       <c r="D198" s="0"/>
@@ -13123,10 +13100,10 @@
     </row>
     <row r="201" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
@@ -13135,10 +13112,10 @@
     </row>
     <row r="202" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B202" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C202" s="73"/>
       <c r="D202" s="0"/>
@@ -13163,10 +13140,10 @@
     </row>
     <row r="205" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C205" s="43"/>
       <c r="D205" s="43"/>
@@ -13176,7 +13153,7 @@
     <row r="206" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="44"/>
       <c r="B206" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C206" s="46"/>
       <c r="D206" s="47"/>
@@ -13194,7 +13171,7 @@
     <row r="208" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="47"/>
       <c r="B208" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C208" s="48"/>
       <c r="D208" s="48"/>
@@ -13203,10 +13180,10 @@
     </row>
     <row r="209" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B209" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C209" s="50"/>
       <c r="D209" s="50"/>
@@ -13215,7 +13192,7 @@
     </row>
     <row r="210" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B210" s="26" t="s">
         <v>16</v>
@@ -13230,7 +13207,7 @@
         <v>17</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C211" s="46"/>
       <c r="D211" s="47"/>
@@ -13255,10 +13232,10 @@
     </row>
     <row r="214" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C214" s="26"/>
       <c r="D214" s="26"/>
@@ -13267,10 +13244,10 @@
     </row>
     <row r="215" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B215" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B215" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C215" s="46"/>
       <c r="D215" s="47"/>
@@ -13279,7 +13256,7 @@
     </row>
     <row r="216" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -13297,10 +13274,10 @@
     </row>
     <row r="218" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C218" s="26"/>
       <c r="D218" s="26"/>
@@ -13312,7 +13289,7 @@
         <v>17</v>
       </c>
       <c r="B219" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C219" s="46"/>
       <c r="D219" s="47"/>
@@ -13330,7 +13307,7 @@
     <row r="221" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="51"/>
       <c r="B221" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C221" s="46"/>
       <c r="D221" s="47"/>
@@ -13355,10 +13332,10 @@
     </row>
     <row r="224" customFormat="false" ht="43.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B224" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C224" s="50"/>
       <c r="D224" s="50"/>
@@ -13367,7 +13344,7 @@
     </row>
     <row r="225" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>16</v>
@@ -13382,7 +13359,7 @@
         <v>17</v>
       </c>
       <c r="B226" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C226" s="46"/>
       <c r="D226" s="47"/>
@@ -13407,10 +13384,10 @@
     </row>
     <row r="229" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C229" s="26"/>
       <c r="D229" s="26"/>
@@ -13419,10 +13396,10 @@
     </row>
     <row r="230" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B230" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B230" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C230" s="46"/>
       <c r="D230" s="47"/>
@@ -13431,7 +13408,7 @@
     </row>
     <row r="231" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -13449,10 +13426,10 @@
     </row>
     <row r="233" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C233" s="26"/>
       <c r="D233" s="26"/>
@@ -13464,7 +13441,7 @@
         <v>17</v>
       </c>
       <c r="B234" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C234" s="46"/>
       <c r="D234" s="47"/>
@@ -13482,7 +13459,7 @@
     <row r="236" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="51"/>
       <c r="B236" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C236" s="46"/>
       <c r="D236" s="47"/>
@@ -13507,10 +13484,10 @@
     </row>
     <row r="239" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B239" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C239" s="50"/>
       <c r="D239" s="50"/>
@@ -13519,7 +13496,7 @@
     </row>
     <row r="240" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B240" s="26" t="s">
         <v>16</v>
@@ -13534,7 +13511,7 @@
         <v>17</v>
       </c>
       <c r="B241" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C241" s="46"/>
       <c r="D241" s="47"/>
@@ -13559,10 +13536,10 @@
     </row>
     <row r="244" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C244" s="26"/>
       <c r="D244" s="26"/>
@@ -13571,10 +13548,10 @@
     </row>
     <row r="245" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B245" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B245" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C245" s="46"/>
       <c r="D245" s="47"/>
@@ -13583,7 +13560,7 @@
     </row>
     <row r="246" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -13601,10 +13578,10 @@
     </row>
     <row r="248" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C248" s="26"/>
       <c r="D248" s="26"/>
@@ -13616,7 +13593,7 @@
         <v>17</v>
       </c>
       <c r="B249" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C249" s="46"/>
       <c r="D249" s="47"/>
@@ -13634,7 +13611,7 @@
     <row r="251" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="51"/>
       <c r="B251" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C251" s="46"/>
       <c r="D251" s="47"/>
@@ -13667,10 +13644,10 @@
     </row>
     <row r="255" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C255" s="26"/>
       <c r="D255" s="26"/>
@@ -13679,10 +13656,10 @@
     </row>
     <row r="256" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B256" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C256" s="73"/>
       <c r="D256" s="0"/>
@@ -13707,10 +13684,10 @@
     </row>
     <row r="259" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C259" s="26"/>
       <c r="D259" s="26"/>
@@ -13722,7 +13699,7 @@
         <v>17</v>
       </c>
       <c r="B260" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C260" s="73"/>
       <c r="D260" s="0"/>
@@ -13747,10 +13724,10 @@
     </row>
     <row r="263" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C263" s="26"/>
       <c r="D263" s="26"/>
@@ -13762,7 +13739,7 @@
         <v>17</v>
       </c>
       <c r="B264" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C264" s="73"/>
       <c r="D264" s="0"/>
@@ -13787,10 +13764,10 @@
     </row>
     <row r="267" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C267" s="26"/>
       <c r="D267" s="26"/>
@@ -13799,10 +13776,10 @@
     </row>
     <row r="268" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B268" s="73" t="s">
         <v>128</v>
-      </c>
-      <c r="B268" s="73" t="s">
-        <v>129</v>
       </c>
       <c r="C268" s="73"/>
       <c r="D268" s="0"/>
@@ -13827,10 +13804,10 @@
     </row>
     <row r="271" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C271" s="26"/>
       <c r="D271" s="26"/>
@@ -13839,10 +13816,10 @@
     </row>
     <row r="272" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B272" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C272" s="73"/>
       <c r="D272" s="0"/>
@@ -13870,7 +13847,7 @@
         <v>1.5</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -13879,7 +13856,7 @@
     <row r="276" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0"/>
       <c r="B276" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C276" s="0"/>
       <c r="D276" s="24"/>
@@ -13897,7 +13874,7 @@
     <row r="278" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="0"/>
       <c r="B278" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C278" s="77"/>
       <c r="D278" s="77"/>
@@ -13914,10 +13891,10 @@
     </row>
     <row r="280" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B280" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="B280" s="41" t="s">
-        <v>166</v>
       </c>
       <c r="C280" s="41"/>
       <c r="D280" s="41"/>
@@ -13927,7 +13904,7 @@
     <row r="281" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="63"/>
       <c r="B281" s="70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C281" s="73"/>
       <c r="D281" s="0"/>
@@ -13944,7 +13921,7 @@
     </row>
     <row r="283" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B283" s="26" t="s">
         <v>16</v>
@@ -13959,7 +13936,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C284" s="73"/>
       <c r="D284" s="0"/>
@@ -13984,10 +13961,10 @@
     </row>
     <row r="287" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B287" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="B287" s="26" t="s">
-        <v>172</v>
       </c>
       <c r="C287" s="26"/>
       <c r="D287" s="26"/>
@@ -13996,10 +13973,10 @@
     </row>
     <row r="288" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B288" s="73" t="s">
         <v>173</v>
-      </c>
-      <c r="B288" s="73" t="s">
-        <v>174</v>
       </c>
       <c r="C288" s="73"/>
       <c r="D288" s="0"/>
@@ -14017,7 +13994,7 @@
     <row r="290" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="74"/>
       <c r="B290" s="73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C290" s="73"/>
       <c r="D290" s="0"/>
@@ -14058,10 +14035,10 @@
     </row>
     <row r="295" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C295" s="26"/>
       <c r="D295" s="26"/>
@@ -14073,7 +14050,7 @@
         <v>17</v>
       </c>
       <c r="B296" s="73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C296" s="73"/>
       <c r="D296" s="0"/>
@@ -14097,10 +14074,10 @@
     </row>
     <row r="299" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B299" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="B299" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="C299" s="26"/>
       <c r="D299" s="26"/>
@@ -14108,10 +14085,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B300" s="73" t="s">
         <v>180</v>
-      </c>
-      <c r="B300" s="73" t="s">
-        <v>181</v>
       </c>
       <c r="C300" s="73"/>
       <c r="D300" s="0"/>
@@ -14127,7 +14104,7 @@
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="63"/>
       <c r="B302" s="73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C302" s="73"/>
       <c r="D302" s="0"/>
@@ -14149,10 +14126,10 @@
     </row>
     <row r="305" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C305" s="26"/>
       <c r="D305" s="26"/>
@@ -14163,7 +14140,7 @@
         <v>17</v>
       </c>
       <c r="B306" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C306" s="73"/>
       <c r="D306" s="0"/>
@@ -14179,7 +14156,7 @@
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="57"/>
       <c r="B308" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C308" s="73"/>
       <c r="D308" s="0"/>
@@ -14201,10 +14178,10 @@
     </row>
     <row r="311" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B311" s="41" t="s">
         <v>186</v>
-      </c>
-      <c r="B311" s="41" t="s">
-        <v>187</v>
       </c>
       <c r="C311" s="41"/>
       <c r="D311" s="41"/>
@@ -14213,7 +14190,7 @@
     <row r="312" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="63"/>
       <c r="B312" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C312" s="73"/>
       <c r="D312" s="0"/>
@@ -14229,7 +14206,7 @@
     <row r="314" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="57"/>
       <c r="B314" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C314" s="64"/>
       <c r="D314" s="64"/>
@@ -14244,7 +14221,7 @@
     </row>
     <row r="316" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B316" s="26" t="s">
         <v>16</v>
@@ -14258,7 +14235,7 @@
         <v>17</v>
       </c>
       <c r="B317" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C317" s="73"/>
       <c r="D317" s="0"/>
@@ -14280,10 +14257,10 @@
     </row>
     <row r="320" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C320" s="26"/>
       <c r="D320" s="26"/>
@@ -14291,10 +14268,10 @@
     </row>
     <row r="321" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B321" s="73" t="s">
         <v>173</v>
-      </c>
-      <c r="B321" s="73" t="s">
-        <v>174</v>
       </c>
       <c r="C321" s="73"/>
       <c r="D321" s="0"/>
@@ -14310,7 +14287,7 @@
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="74"/>
       <c r="B323" s="73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C323" s="73"/>
       <c r="D323" s="0"/>
@@ -14332,10 +14309,10 @@
     </row>
     <row r="326" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C326" s="26"/>
       <c r="D326" s="26"/>
@@ -14346,7 +14323,7 @@
         <v>17</v>
       </c>
       <c r="B327" s="73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C327" s="73"/>
       <c r="D327" s="0"/>
@@ -14368,10 +14345,10 @@
     </row>
     <row r="330" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C330" s="26"/>
       <c r="D330" s="26"/>
@@ -14379,10 +14356,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B331" s="73" t="s">
         <v>180</v>
-      </c>
-      <c r="B331" s="73" t="s">
-        <v>181</v>
       </c>
       <c r="C331" s="73"/>
       <c r="D331" s="0"/>
@@ -14398,7 +14375,7 @@
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="63"/>
       <c r="B333" s="73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C333" s="73"/>
       <c r="D333" s="0"/>
@@ -14420,10 +14397,10 @@
     </row>
     <row r="336" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C336" s="26"/>
       <c r="D336" s="26"/>
@@ -14434,7 +14411,7 @@
         <v>17</v>
       </c>
       <c r="B337" s="73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C337" s="73"/>
       <c r="D337" s="0"/>
@@ -14450,7 +14427,7 @@
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="57"/>
       <c r="B339" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C339" s="73"/>
       <c r="D339" s="0"/>
@@ -14474,7 +14451,7 @@
         <v>1.6</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -14482,7 +14459,7 @@
     <row r="343" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="0"/>
       <c r="B343" s="70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C343" s="0"/>
       <c r="D343" s="0"/>
@@ -14495,7 +14472,7 @@
     </row>
     <row r="345" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B345" s="26" t="s">
         <v>16</v>
@@ -14509,7 +14486,7 @@
         <v>17</v>
       </c>
       <c r="B346" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C346" s="73"/>
       <c r="D346" s="0"/>
@@ -14531,10 +14508,10 @@
     </row>
     <row r="349" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B349" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="B349" s="26" t="s">
-        <v>204</v>
       </c>
       <c r="C349" s="26"/>
       <c r="D349" s="26"/>
@@ -14545,7 +14522,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C350" s="73"/>
       <c r="D350" s="0"/>
@@ -14567,10 +14544,10 @@
     </row>
     <row r="353" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C353" s="26"/>
       <c r="D353" s="26"/>
@@ -14581,7 +14558,7 @@
         <v>17</v>
       </c>
       <c r="B354" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C354" s="73"/>
       <c r="D354" s="0"/>
@@ -14603,10 +14580,10 @@
     </row>
     <row r="357" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C357" s="26"/>
       <c r="D357" s="26"/>
@@ -14617,7 +14594,7 @@
         <v>17</v>
       </c>
       <c r="B358" s="73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C358" s="73"/>
       <c r="D358" s="0"/>
@@ -14633,7 +14610,7 @@
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="57"/>
       <c r="B360" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C360" s="73"/>
       <c r="D360" s="0"/>
@@ -14651,7 +14628,7 @@
         <v>1.7</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C363" s="23"/>
       <c r="D363" s="23"/>
@@ -14659,7 +14636,7 @@
     <row r="364" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0"/>
       <c r="B364" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C364" s="0"/>
       <c r="D364" s="0"/>
@@ -14672,20 +14649,20 @@
     </row>
     <row r="366" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B366" s="26" t="s">
         <v>214</v>
-      </c>
-      <c r="B366" s="26" t="s">
-        <v>215</v>
       </c>
       <c r="C366" s="26"/>
       <c r="D366" s="26"/>
     </row>
     <row r="367" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B367" s="73" t="s">
         <v>216</v>
-      </c>
-      <c r="B367" s="73" t="s">
-        <v>217</v>
       </c>
       <c r="C367" s="73"/>
       <c r="D367" s="0"/>
@@ -14704,20 +14681,20 @@
     </row>
     <row r="370" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B370" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="B370" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="C370" s="26"/>
       <c r="D370" s="26"/>
     </row>
     <row r="371" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B371" s="73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C371" s="73"/>
       <c r="D371" s="0"/>
@@ -14734,7 +14711,7 @@
         <v>1.8</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C374" s="23"/>
       <c r="D374" s="23"/>
@@ -14742,7 +14719,7 @@
     <row r="375" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="0"/>
       <c r="B375" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C375" s="0"/>
       <c r="D375" s="24"/>
@@ -14756,7 +14733,7 @@
     <row r="377" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="57"/>
       <c r="B377" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C377" s="58"/>
       <c r="D377" s="58"/>
@@ -14769,20 +14746,20 @@
     </row>
     <row r="379" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B379" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="B379" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
     </row>
     <row r="380" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B380" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C380" s="58"/>
       <c r="D380" s="58"/>
@@ -14802,7 +14779,7 @@
     <row r="383" customFormat="false" ht="33.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="63"/>
       <c r="B383" s="64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C383" s="64"/>
       <c r="D383" s="64"/>
@@ -14815,10 +14792,10 @@
     </row>
     <row r="385" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="B385" s="68" t="s">
         <v>229</v>
-      </c>
-      <c r="B385" s="68" t="s">
-        <v>230</v>
       </c>
       <c r="C385" s="68"/>
       <c r="D385" s="68"/>
@@ -14826,7 +14803,7 @@
     <row r="386" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="57"/>
       <c r="B386" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C386" s="56"/>
       <c r="D386" s="56"/>
@@ -14840,24 +14817,24 @@
     <row r="388" customFormat="false" ht="97.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="57"/>
       <c r="B388" s="64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C388" s="64"/>
       <c r="D388" s="64"/>
     </row>
     <row r="389" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B389" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
     </row>
     <row r="390" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B390" s="34"/>
       <c r="C390" s="34"/>
@@ -14874,7 +14851,7 @@
         <v>1.9</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C392" s="23"/>
       <c r="D392" s="23"/>
@@ -14882,7 +14859,7 @@
     <row r="393" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="0"/>
       <c r="B393" s="56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C393" s="56"/>
       <c r="D393" s="56"/>
@@ -14896,7 +14873,7 @@
     <row r="395" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="57"/>
       <c r="B395" s="58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C395" s="58"/>
       <c r="D395" s="58"/>
@@ -14909,20 +14886,20 @@
     </row>
     <row r="397" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B397" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C397" s="26"/>
       <c r="D397" s="26"/>
     </row>
     <row r="398" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B398" s="58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C398" s="58"/>
       <c r="D398" s="58"/>
@@ -14942,7 +14919,7 @@
     <row r="401" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="63"/>
       <c r="B401" s="64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C401" s="64"/>
       <c r="D401" s="64"/>
@@ -14955,10 +14932,10 @@
     </row>
     <row r="403" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B403" s="68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C403" s="68"/>
       <c r="D403" s="68"/>
@@ -14966,7 +14943,7 @@
     <row r="404" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="57"/>
       <c r="B404" s="56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C404" s="56"/>
       <c r="D404" s="56"/>
@@ -14980,7 +14957,7 @@
     <row r="406" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="57"/>
       <c r="B406" s="64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C406" s="64"/>
       <c r="D406" s="64"/>
@@ -14993,17 +14970,17 @@
     </row>
     <row r="408" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B408" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C408" s="26"/>
       <c r="D408" s="26"/>
     </row>
     <row r="409" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B409" s="34"/>
       <c r="C409" s="34"/>
